--- a/Course Outcomes.xlsx
+++ b/Course Outcomes.xlsx
@@ -363,7 +363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T60"/>
+  <dimension ref="A1:U60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,6 +429,9 @@
       <c r="T1" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -485,6 +488,7 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -565,6 +569,7 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -645,6 +650,7 @@
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -674,9 +680,26 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Total obtained</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Total Attempted</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Grades on scale of 3</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -741,6 +764,9 @@
       <c r="T6" t="n">
         <v>85.29411764705883</v>
       </c>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -805,6 +831,9 @@
       <c r="T7" t="n">
         <v>58.82352941176471</v>
       </c>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -869,6 +898,9 @@
       <c r="T8" t="n">
         <v>26.47058823529412</v>
       </c>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -933,6 +965,9 @@
       <c r="T9" t="n">
         <v>64.70588235294117</v>
       </c>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -997,6 +1032,9 @@
       <c r="T10" t="n">
         <v>52.94117647058824</v>
       </c>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1063,6 +1101,9 @@
       <c r="T11" t="n">
         <v>38.63636363636363</v>
       </c>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1127,6 +1168,9 @@
       <c r="T12" t="n">
         <v>26.47058823529412</v>
       </c>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1191,6 +1235,9 @@
       <c r="T13" t="n">
         <v>41.17647058823529</v>
       </c>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1255,6 +1302,9 @@
       <c r="T14" t="n">
         <v>70.58823529411765</v>
       </c>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1319,6 +1369,9 @@
       <c r="T15" t="n">
         <v>35.29411764705883</v>
       </c>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1383,6 +1436,9 @@
       <c r="T16" t="n">
         <v>94.11764705882352</v>
       </c>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1447,6 +1503,9 @@
       <c r="T17" t="n">
         <v>82.35294117647058</v>
       </c>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1511,6 +1570,9 @@
       <c r="T18" t="n">
         <v>41.17647058823529</v>
       </c>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1575,6 +1637,9 @@
       <c r="T19" t="n">
         <v>44.11764705882353</v>
       </c>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1639,6 +1704,9 @@
       <c r="T20" t="n">
         <v>47.05882352941176</v>
       </c>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1703,6 +1771,9 @@
       <c r="T21" t="n">
         <v>58.82352941176471</v>
       </c>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1767,6 +1838,9 @@
       <c r="T22" t="n">
         <v>58.82352941176471</v>
       </c>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1833,6 +1907,9 @@
       <c r="T23" t="n">
         <v>0</v>
       </c>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1897,6 +1974,9 @@
       <c r="T24" t="n">
         <v>38.23529411764706</v>
       </c>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1963,6 +2043,9 @@
       <c r="T25" t="n">
         <v>88.63636363636364</v>
       </c>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2027,6 +2110,9 @@
       <c r="T26" t="n">
         <v>70.58823529411765</v>
       </c>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2091,6 +2177,9 @@
       <c r="T27" t="n">
         <v>5.88235294117647</v>
       </c>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2155,6 +2244,9 @@
       <c r="T28" t="n">
         <v>41.17647058823529</v>
       </c>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2219,6 +2311,9 @@
       <c r="T29" t="n">
         <v>47.05882352941176</v>
       </c>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2283,6 +2378,9 @@
       <c r="T30" t="n">
         <v>85.29411764705883</v>
       </c>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2347,6 +2445,9 @@
       <c r="T31" t="n">
         <v>44.11764705882353</v>
       </c>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2411,6 +2512,9 @@
       <c r="T32" t="n">
         <v>38.23529411764706</v>
       </c>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2475,6 +2579,9 @@
       <c r="T33" t="n">
         <v>44.11764705882353</v>
       </c>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2539,6 +2646,9 @@
       <c r="T34" t="n">
         <v>70.58823529411765</v>
       </c>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2603,6 +2713,9 @@
       <c r="T35" t="n">
         <v>76.47058823529412</v>
       </c>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2669,6 +2782,9 @@
       <c r="T36" t="n">
         <v>50</v>
       </c>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2733,6 +2849,9 @@
       <c r="T37" t="n">
         <v>47.05882352941176</v>
       </c>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2797,6 +2916,9 @@
       <c r="T38" t="n">
         <v>44.11764705882353</v>
       </c>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2861,6 +2983,9 @@
       <c r="T39" t="n">
         <v>55.88235294117647</v>
       </c>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2925,6 +3050,9 @@
       <c r="T40" t="n">
         <v>55.88235294117647</v>
       </c>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2989,6 +3117,9 @@
       <c r="T41" t="n">
         <v>55.88235294117647</v>
       </c>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -3053,6 +3184,9 @@
       <c r="T42" t="n">
         <v>47.05882352941176</v>
       </c>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -3117,6 +3251,9 @@
       <c r="T43" t="n">
         <v>5.88235294117647</v>
       </c>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -3181,6 +3318,9 @@
       <c r="T44" t="n">
         <v>44.11764705882353</v>
       </c>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -3245,6 +3385,9 @@
       <c r="T45" t="n">
         <v>76.47058823529412</v>
       </c>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -3309,6 +3452,9 @@
       <c r="T46" t="n">
         <v>91.17647058823529</v>
       </c>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3373,6 +3519,9 @@
       <c r="T47" t="n">
         <v>35.29411764705883</v>
       </c>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3437,6 +3586,9 @@
       <c r="T48" t="n">
         <v>23.52941176470588</v>
       </c>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3503,6 +3655,9 @@
       <c r="T49" t="n">
         <v>15.90909090909091</v>
       </c>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3567,6 +3722,9 @@
       <c r="T50" t="n">
         <v>38.23529411764706</v>
       </c>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3631,6 +3789,9 @@
       <c r="T51" t="n">
         <v>50</v>
       </c>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3695,6 +3856,9 @@
       <c r="T52" t="n">
         <v>35.29411764705883</v>
       </c>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3759,6 +3923,9 @@
       <c r="T53" t="n">
         <v>41.17647058823529</v>
       </c>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3823,6 +3990,9 @@
       <c r="T54" t="n">
         <v>23.52941176470588</v>
       </c>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3887,6 +4057,9 @@
       <c r="T55" t="n">
         <v>20.58823529411764</v>
       </c>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3951,6 +4124,9 @@
       <c r="T56" t="n">
         <v>29.41176470588236</v>
       </c>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -4015,6 +4191,9 @@
       <c r="T57" t="n">
         <v>23.52941176470588</v>
       </c>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -4079,6 +4258,9 @@
       <c r="T58" t="n">
         <v>64.70588235294117</v>
       </c>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -4143,6 +4325,9 @@
       <c r="T59" t="n">
         <v>11.76470588235294</v>
       </c>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -4208,6 +4393,9 @@
       </c>
       <c r="T60" t="n">
         <v>56.81818181818182</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4221,7 +4409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O60"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4272,6 +4460,9 @@
       <c r="O1" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -4313,6 +4504,7 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -4368,6 +4560,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -4423,6 +4616,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -4447,9 +4641,26 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Total obtained</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Total Attempted</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Grades on scale of 3</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -4501,6 +4712,9 @@
       <c r="O6" t="n">
         <v>69.04761904761905</v>
       </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -4552,6 +4766,9 @@
       <c r="O7" t="n">
         <v>57.14285714285714</v>
       </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -4603,6 +4820,9 @@
       <c r="O8" t="n">
         <v>38.09523809523809</v>
       </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -4654,6 +4874,9 @@
       <c r="O9" t="n">
         <v>50</v>
       </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -4703,6 +4926,9 @@
       <c r="O10" t="n">
         <v>90.625</v>
       </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -4750,6 +4976,9 @@
       <c r="O11" t="n">
         <v>50</v>
       </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -4801,6 +5030,9 @@
       <c r="O12" t="n">
         <v>54.76190476190477</v>
       </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -4852,6 +5084,9 @@
       <c r="O13" t="n">
         <v>64.28571428571429</v>
       </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -4901,6 +5136,9 @@
       <c r="O14" t="n">
         <v>87.5</v>
       </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -4952,6 +5190,9 @@
       <c r="O15" t="n">
         <v>54.76190476190477</v>
       </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -5003,6 +5244,9 @@
       <c r="O16" t="n">
         <v>88.09523809523809</v>
       </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -5054,6 +5298,9 @@
       <c r="O17" t="n">
         <v>71.42857142857143</v>
       </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -5105,6 +5352,9 @@
       <c r="O18" t="n">
         <v>45.23809523809524</v>
       </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -5156,6 +5406,9 @@
       <c r="O19" t="n">
         <v>50</v>
       </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -5207,6 +5460,9 @@
       <c r="O20" t="n">
         <v>88.09523809523809</v>
       </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -5258,6 +5514,9 @@
       <c r="O21" t="n">
         <v>66.66666666666666</v>
       </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -5309,6 +5568,9 @@
       <c r="O22" t="n">
         <v>88.09523809523809</v>
       </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -5360,6 +5622,9 @@
       <c r="O23" t="n">
         <v>52.38095238095239</v>
       </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -5411,6 +5676,9 @@
       <c r="O24" t="n">
         <v>80.95238095238095</v>
       </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -5460,6 +5728,9 @@
       <c r="O25" t="n">
         <v>96.875</v>
       </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -5511,6 +5782,9 @@
       <c r="O26" t="n">
         <v>71.42857142857143</v>
       </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -5562,6 +5836,9 @@
       <c r="O27" t="n">
         <v>0</v>
       </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -5613,6 +5890,9 @@
       <c r="O28" t="n">
         <v>11.9047619047619</v>
       </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -5664,6 +5944,9 @@
       <c r="O29" t="n">
         <v>28.57142857142857</v>
       </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -5715,6 +5998,9 @@
       <c r="O30" t="n">
         <v>66.66666666666666</v>
       </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -5766,6 +6052,9 @@
       <c r="O31" t="n">
         <v>61.90476190476191</v>
       </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -5817,6 +6106,9 @@
       <c r="O32" t="n">
         <v>59.52380952380953</v>
       </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -5868,6 +6160,9 @@
       <c r="O33" t="n">
         <v>54.76190476190477</v>
       </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -5919,6 +6214,9 @@
       <c r="O34" t="n">
         <v>88.09523809523809</v>
       </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -5970,6 +6268,9 @@
       <c r="O35" t="n">
         <v>52.38095238095239</v>
       </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -6021,6 +6322,9 @@
       <c r="O36" t="n">
         <v>85.71428571428571</v>
       </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -6072,6 +6376,9 @@
       <c r="O37" t="n">
         <v>54.76190476190477</v>
       </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -6123,6 +6430,9 @@
       <c r="O38" t="n">
         <v>57.14285714285714</v>
       </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -6174,6 +6484,9 @@
       <c r="O39" t="n">
         <v>85.71428571428571</v>
       </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -6225,6 +6538,9 @@
       <c r="O40" t="n">
         <v>52.38095238095239</v>
       </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -6276,6 +6592,9 @@
       <c r="O41" t="n">
         <v>73.80952380952381</v>
       </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -6327,6 +6646,9 @@
       <c r="O42" t="n">
         <v>57.14285714285714</v>
       </c>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -6378,6 +6700,9 @@
       <c r="O43" t="n">
         <v>2.380952380952381</v>
       </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -6429,6 +6754,9 @@
       <c r="O44" t="n">
         <v>73.80952380952381</v>
       </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -6480,6 +6808,9 @@
       <c r="O45" t="n">
         <v>88.09523809523809</v>
       </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -6531,6 +6862,9 @@
       <c r="O46" t="n">
         <v>100</v>
       </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -6582,6 +6916,9 @@
       <c r="O47" t="n">
         <v>83.33333333333334</v>
       </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -6633,6 +6970,9 @@
       <c r="O48" t="n">
         <v>40.47619047619047</v>
       </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -6684,6 +7024,9 @@
       <c r="O49" t="n">
         <v>73.80952380952381</v>
       </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -6735,6 +7078,9 @@
       <c r="O50" t="n">
         <v>40.47619047619047</v>
       </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -6786,6 +7132,9 @@
       <c r="O51" t="n">
         <v>61.90476190476191</v>
       </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -6837,6 +7186,9 @@
       <c r="O52" t="n">
         <v>38.09523809523809</v>
       </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -6888,6 +7240,9 @@
       <c r="O53" t="n">
         <v>30.95238095238095</v>
       </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -6939,6 +7294,9 @@
       <c r="O54" t="n">
         <v>11.9047619047619</v>
       </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -6990,6 +7348,9 @@
       <c r="O55" t="n">
         <v>14.28571428571428</v>
       </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -7041,6 +7402,9 @@
       <c r="O56" t="n">
         <v>30.95238095238095</v>
       </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -7092,6 +7456,9 @@
       <c r="O57" t="n">
         <v>0</v>
       </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -7143,6 +7510,9 @@
       <c r="O58" t="n">
         <v>88.09523809523809</v>
       </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -7194,6 +7564,9 @@
       <c r="O59" t="n">
         <v>23.80952380952381</v>
       </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -7244,6 +7617,9 @@
       </c>
       <c r="O60" t="n">
         <v>95.23809523809523</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -7257,7 +7633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7299,6 +7675,9 @@
       <c r="L1" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -7331,6 +7710,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -7371,6 +7751,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -7411,6 +7792,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -7432,9 +7814,26 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Total obtained</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Total Attempted</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Grades on scale of 3</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -7475,6 +7874,9 @@
       <c r="L6" t="n">
         <v>88.88888888888889</v>
       </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -7515,6 +7917,9 @@
       <c r="L7" t="n">
         <v>50</v>
       </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -7555,6 +7960,9 @@
       <c r="L8" t="n">
         <v>0</v>
       </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -7597,6 +8005,9 @@
       <c r="L9" t="n">
         <v>50</v>
       </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -7637,6 +8048,9 @@
       <c r="L10" t="n">
         <v>50</v>
       </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -7679,6 +8093,9 @@
       <c r="L11" t="n">
         <v>35.71428571428572</v>
       </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -7719,6 +8136,9 @@
       <c r="L12" t="n">
         <v>44.44444444444444</v>
       </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -7759,6 +8179,9 @@
       <c r="L13" t="n">
         <v>94.44444444444444</v>
       </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -7801,6 +8224,9 @@
       <c r="L14" t="n">
         <v>89.28571428571429</v>
       </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -7841,6 +8267,9 @@
       <c r="L15" t="n">
         <v>11.11111111111111</v>
       </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -7881,6 +8310,9 @@
       <c r="L16" t="n">
         <v>83.33333333333334</v>
       </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -7923,6 +8355,9 @@
       <c r="L17" t="n">
         <v>71.42857142857143</v>
       </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -7965,6 +8400,9 @@
       <c r="L18" t="n">
         <v>50</v>
       </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -8007,6 +8445,9 @@
       <c r="L19" t="n">
         <v>89.28571428571429</v>
       </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -8047,6 +8488,9 @@
       <c r="L20" t="n">
         <v>27.77777777777778</v>
       </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -8089,6 +8533,9 @@
       <c r="L21" t="n">
         <v>75</v>
       </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -8129,6 +8576,9 @@
       <c r="L22" t="n">
         <v>77.77777777777779</v>
       </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -8169,6 +8619,9 @@
       <c r="L23" t="n">
         <v>88.88888888888889</v>
       </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -8209,6 +8662,9 @@
       <c r="L24" t="n">
         <v>33.33333333333333</v>
       </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -8249,6 +8705,9 @@
       <c r="L25" t="n">
         <v>94.44444444444444</v>
       </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -8291,6 +8750,9 @@
       <c r="L26" t="n">
         <v>78.57142857142857</v>
       </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -8333,6 +8795,9 @@
       <c r="L27" t="n">
         <v>3.571428571428571</v>
       </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -8373,6 +8838,9 @@
       <c r="L28" t="n">
         <v>44.44444444444444</v>
       </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -8415,6 +8883,9 @@
       <c r="L29" t="n">
         <v>67.85714285714286</v>
       </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -8457,6 +8928,9 @@
       <c r="L30" t="n">
         <v>75</v>
       </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -8499,6 +8973,9 @@
       <c r="L31" t="n">
         <v>42.85714285714285</v>
       </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -8539,6 +9016,9 @@
       <c r="L32" t="n">
         <v>0</v>
       </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -8579,6 +9059,9 @@
       <c r="L33" t="n">
         <v>38.88888888888889</v>
       </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -8619,6 +9102,9 @@
       <c r="L34" t="n">
         <v>83.33333333333334</v>
       </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -8661,6 +9147,9 @@
       <c r="L35" t="n">
         <v>60.71428571428571</v>
       </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -8701,6 +9190,9 @@
       <c r="L36" t="n">
         <v>77.77777777777779</v>
       </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -8741,6 +9233,9 @@
       <c r="L37" t="n">
         <v>66.66666666666666</v>
       </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -8783,6 +9278,9 @@
       <c r="L38" t="n">
         <v>46.42857142857143</v>
       </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -8823,6 +9321,9 @@
       <c r="L39" t="n">
         <v>88.88888888888889</v>
       </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -8865,6 +9366,9 @@
       <c r="L40" t="n">
         <v>53.57142857142857</v>
       </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -8905,6 +9409,9 @@
       <c r="L41" t="n">
         <v>72.22222222222221</v>
       </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -8945,6 +9452,9 @@
       <c r="L42" t="n">
         <v>77.77777777777779</v>
       </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -8985,6 +9495,9 @@
       <c r="L43" t="n">
         <v>0</v>
       </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -9025,6 +9538,9 @@
       <c r="L44" t="n">
         <v>50</v>
       </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -9065,6 +9581,9 @@
       <c r="L45" t="n">
         <v>100</v>
       </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -9107,6 +9626,9 @@
       <c r="L46" t="n">
         <v>64.28571428571429</v>
       </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -9147,6 +9669,9 @@
       <c r="L47" t="n">
         <v>94.44444444444444</v>
       </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -9189,6 +9714,9 @@
       <c r="L48" t="n">
         <v>39.28571428571428</v>
       </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -9229,6 +9757,9 @@
       <c r="L49" t="n">
         <v>5.555555555555555</v>
       </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -9269,6 +9800,9 @@
       <c r="L50" t="n">
         <v>38.88888888888889</v>
       </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -9309,6 +9843,9 @@
       <c r="L51" t="n">
         <v>5.555555555555555</v>
       </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -9349,6 +9886,9 @@
       <c r="L52" t="n">
         <v>11.11111111111111</v>
       </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -9391,6 +9931,9 @@
       <c r="L53" t="n">
         <v>46.42857142857143</v>
       </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -9433,6 +9976,9 @@
       <c r="L54" t="n">
         <v>0</v>
       </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -9473,6 +10019,9 @@
       <c r="L55" t="n">
         <v>33.33333333333333</v>
       </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -9515,6 +10064,9 @@
       <c r="L56" t="n">
         <v>21.42857142857143</v>
       </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -9555,6 +10107,9 @@
       <c r="L57" t="n">
         <v>5.555555555555555</v>
       </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -9595,6 +10150,9 @@
       <c r="L58" t="n">
         <v>100</v>
       </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -9635,6 +10193,9 @@
       <c r="L59" t="n">
         <v>0</v>
       </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -9674,6 +10235,9 @@
       </c>
       <c r="L60" t="n">
         <v>88.88888888888889</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -9682,6 +10246,1966 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Max Mark</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>T1-Q13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>T1-Q15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CO4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CO4</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Roll No.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Total obtained</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Total Attempted</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Grades on scale of 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>17BAE001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>BHAGAVATHIYAPPAN S</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>17BAE002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DIKSEEKA J</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>17BAE003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DHARSHINI K M</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>17BAE004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ANBALAGAN R</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>75</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>17BAE005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PRABHAGARAN P</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>17BAE006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ASHWIN ADHITHYA S</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>50</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>17BAE007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>RAMESHPRABHU C</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>50</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>17BAE008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MIRRUDULA P</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>50</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>17BAE010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>BALAJI S</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>50</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>17BAE012</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>VARSHINI S</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>25</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>17BAE013</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>RAMESH M</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>17BAE014</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>HARIHARAN A</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>17BAE015</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>VINEETHKRISHNA U</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>17BAE016</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>KAVIYA PRIYA P</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>50</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>17BAE017</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SAI SARAVANAN A</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>75</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>17BAE018</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PADMA GANESAN</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>17BAE019</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MOUNICA SREE K.G</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>17BAE020</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>THAMIZHANBU E</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>17BAE021</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ABINAYA K</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>17BAE022</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>THIANESH U K</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>17BAE023</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DURAI ISAAC JAFFERSON M</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4</v>
+      </c>
+      <c r="H26" t="n">
+        <v>25</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>17BAE024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>GOVARDANA BALAJI M</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>17BAE025</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>AJAY M</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>17BAE026</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>MIDHUN B</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>50</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>17BAE029</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NAVIN A</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4</v>
+      </c>
+      <c r="H30" t="n">
+        <v>100</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>17BAE030</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>YAZHINI P</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>17BAE031</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>VENKAT PRASAD S</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4</v>
+      </c>
+      <c r="H32" t="n">
+        <v>75</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>17BAE032</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>GEOFFREY GEORGE VARGHESE</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4</v>
+      </c>
+      <c r="H33" t="n">
+        <v>25</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>17BAE033</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>BALAMURUGAN M</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4</v>
+      </c>
+      <c r="H34" t="n">
+        <v>75</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>17BAE034</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>RAHUL S</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4</v>
+      </c>
+      <c r="H35" t="n">
+        <v>25</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>17BAE035</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MALAVIKA M</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4</v>
+      </c>
+      <c r="H36" t="n">
+        <v>75</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>17BAE036</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PRABHAKARAN V</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4</v>
+      </c>
+      <c r="H37" t="n">
+        <v>50</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>17BAE037</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ARUN KRISHNA M</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4</v>
+      </c>
+      <c r="H38" t="n">
+        <v>25</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>17BAE038</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>RAJAMANICKAM M</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4</v>
+      </c>
+      <c r="H39" t="n">
+        <v>50</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>17BAE039</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>BENIN B OLIVER</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4</v>
+      </c>
+      <c r="H40" t="n">
+        <v>50</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>17BAE040</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>SANGEETHA G</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4</v>
+      </c>
+      <c r="G41" t="n">
+        <v>4</v>
+      </c>
+      <c r="H41" t="n">
+        <v>100</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>17BAE043</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>JAYASEELAN A</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" t="n">
+        <v>4</v>
+      </c>
+      <c r="H42" t="n">
+        <v>75</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>17BAE046</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SHIBU V S</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" t="n">
+        <v>4</v>
+      </c>
+      <c r="H43" t="n">
+        <v>50</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>17BAE047</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>VIJAYARAJ D</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4</v>
+      </c>
+      <c r="H44" t="n">
+        <v>25</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>17BAE048</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>VEDA SHRAVIYA S</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4</v>
+      </c>
+      <c r="H45" t="n">
+        <v>100</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>17BAE049</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>RAHUL PRADEEP</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" t="n">
+        <v>4</v>
+      </c>
+      <c r="H46" t="n">
+        <v>50</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>17BAE052</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>SHANKARA NARAYANAN P</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" t="n">
+        <v>4</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4</v>
+      </c>
+      <c r="H47" t="n">
+        <v>100</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>17BAE056</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>KRISHNA KUMAR K M</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>17BAE057</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>SUMITHA M</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>4</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>17BAE201</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>RAMESH G</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>4</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>17BAE202</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>DEEPAN S</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>4</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>17BAE203</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>MANI KANDAN R</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G52" t="n">
+        <v>4</v>
+      </c>
+      <c r="H52" t="n">
+        <v>75</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>17BAE205</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PON  G K ARUN</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" t="n">
+        <v>4</v>
+      </c>
+      <c r="H53" t="n">
+        <v>50</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>17BAE206</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>RAJESH P</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>4</v>
+      </c>
+      <c r="H54" t="n">
+        <v>25</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>17BAE207</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>HARIARAN S</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>4</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>17BAE208</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>JANARDHANAN Y</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>4</v>
+      </c>
+      <c r="H56" t="n">
+        <v>25</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>17BAE209</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>SABARISH PRABHU N</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4</v>
+      </c>
+      <c r="H57" t="n">
+        <v>75</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>17BAE210</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>RUTHRA KUMAAR M</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>4</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>17BAE211</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NANDHAGOPAL R</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>4</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>17BAE301</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>MARY ELIZABETH LAMPNY K J</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4</v>
+      </c>
+      <c r="H60" t="n">
+        <v>50</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9729,11 +12253,9 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -9746,14 +12268,10 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>T1-Q13</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>T1-Q15</t>
-        </is>
-      </c>
+          <t>T1-Q1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -9766,14 +12284,10 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CO4</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CO4</t>
-        </is>
-      </c>
+          <t>CO5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -9793,10 +12307,26 @@
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Total obtained</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Total Attempted</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Grades on scale of 3</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -9813,19 +12343,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -9849,13 +12379,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -9873,7 +12403,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -9882,10 +12412,10 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -9906,16 +12436,16 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H9" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -9933,19 +12463,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -9963,19 +12493,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -9996,16 +12526,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -10026,16 +12556,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -10056,16 +12586,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -10086,16 +12616,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -10113,19 +12643,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H16" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -10143,19 +12673,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -10173,19 +12703,19 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -10206,16 +12736,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -10236,16 +12766,16 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H20" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -10263,19 +12793,19 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H21" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -10299,13 +12829,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -10329,13 +12859,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -10353,19 +12883,19 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H24" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -10383,19 +12913,19 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H25" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -10413,7 +12943,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -10422,10 +12952,10 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -10449,13 +12979,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -10479,13 +13009,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -10503,19 +13033,19 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -10533,19 +13063,19 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -10569,13 +13099,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -10593,19 +13123,19 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -10623,7 +13153,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
@@ -10632,10 +13162,10 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H33" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -10653,19 +13183,19 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -10683,7 +13213,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -10692,10 +13222,10 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -10713,19 +13243,19 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -10743,19 +13273,19 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -10773,7 +13303,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -10782,10 +13312,10 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H38" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -10803,19 +13333,19 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H39" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -10833,19 +13363,19 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -10863,19 +13393,19 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -10893,19 +13423,19 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -10926,16 +13456,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -10953,7 +13483,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
@@ -10962,10 +13492,10 @@
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H44" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -10983,19 +13513,19 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H45" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -11013,19 +13543,19 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -11043,19 +13573,19 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -11079,13 +13609,13 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -11109,13 +13639,13 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -11139,13 +13669,13 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -11169,13 +13699,13 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -11193,19 +13723,19 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -11223,19 +13753,19 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -11253,7 +13783,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -11262,10 +13792,10 @@
         <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -11283,19 +13813,19 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -11313,7 +13843,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
         <v>1</v>
@@ -11322,10 +13852,10 @@
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H56" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -11343,19 +13873,19 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H57" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -11379,13 +13909,13 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -11409,13 +13939,13 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -11433,1599 +13963,6 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>2</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4</v>
-      </c>
-      <c r="H60" t="n">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G60"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Max Mark</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>T1-Q1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CO5</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Roll No.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>17BAE001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>BHAGAVATHIYAPPAN S</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>17BAE002</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>DIKSEEKA J</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>17BAE003</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>DHARSHINI K M</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>17BAE004</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ANBALAGAN R</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>17BAE005</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>PRABHAGARAN P</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>17BAE006</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ASHWIN ADHITHYA S</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>17BAE007</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>RAMESHPRABHU C</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>17BAE008</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>MIRRUDULA P</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>17BAE010</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>BALAJI S</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>17BAE012</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>VARSHINI S</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>17BAE013</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>RAMESH M</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>17BAE014</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>HARIHARAN A</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>17BAE015</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>VINEETHKRISHNA U</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>17BAE016</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>KAVIYA PRIYA P</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>17BAE017</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>SAI SARAVANAN A</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>17BAE018</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>PADMA GANESAN</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>17BAE019</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>MOUNICA SREE K.G</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>17BAE020</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>THAMIZHANBU E</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>17BAE021</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>ABINAYA K</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>17BAE022</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>THIANESH U K</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>17BAE023</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>DURAI ISAAC JAFFERSON M</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>17BAE024</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>GOVARDANA BALAJI M</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>17BAE025</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>AJAY M</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>17BAE026</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>MIDHUN B</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>17BAE029</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>NAVIN A</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>17BAE030</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>YAZHINI P</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>17BAE031</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>VENKAT PRASAD S</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>17BAE032</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>GEOFFREY GEORGE VARGHESE</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>17BAE033</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>BALAMURUGAN M</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>17BAE034</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>RAHUL S</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>17BAE035</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>MALAVIKA M</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>17BAE036</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>PRABHAKARAN V</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>17BAE037</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>ARUN KRISHNA M</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>17BAE038</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>RAJAMANICKAM M</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>17BAE039</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>BENIN B OLIVER</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>17BAE040</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>SANGEETHA G</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>17BAE043</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>JAYASEELAN A</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>17BAE046</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>SHIBU V S</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>17BAE047</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>VIJAYARAJ D</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>17BAE048</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>VEDA SHRAVIYA S</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>17BAE049</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>RAHUL PRADEEP</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>17BAE052</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>SHANKARA NARAYANAN P</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>17BAE056</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>KRISHNA KUMAR K M</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>17BAE057</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>SUMITHA M</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>17BAE201</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>RAMESH G</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>17BAE202</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>DEEPAN S</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>17BAE203</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>MANI KANDAN R</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>17BAE205</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>PON  G K ARUN</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>17BAE206</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>RAJESH P</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>17BAE207</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>HARIARAN S</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" t="n">
-        <v>1</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>17BAE208</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>JANARDHANAN Y</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>17BAE209</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>SABARISH PRABHU N</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" t="n">
-        <v>1</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>17BAE210</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>RUTHRA KUMAAR M</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>17BAE211</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>NANDHAGOPAL R</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>17BAE301</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>MARY ELIZABETH LAMPNY K J</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
         <v>1</v>
       </c>
       <c r="E60" t="n">
@@ -13036,6 +13973,9 @@
       </c>
       <c r="G60" t="n">
         <v>100</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -13049,7 +13989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13076,6 +14016,9 @@
       <c r="G1" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -13093,6 +14036,7 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -13108,6 +14052,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -13123,6 +14068,7 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -13139,9 +14085,26 @@
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Total obtained</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Total Attempted</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Grades on scale of 3</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -13169,6 +14132,9 @@
       <c r="G6" t="n">
         <v>100</v>
       </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -13196,6 +14162,9 @@
       <c r="G7" t="n">
         <v>100</v>
       </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -13223,6 +14192,9 @@
       <c r="G8" t="n">
         <v>100</v>
       </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -13250,6 +14222,9 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -13277,6 +14252,9 @@
       <c r="G10" t="n">
         <v>100</v>
       </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -13304,6 +14282,9 @@
       <c r="G11" t="n">
         <v>100</v>
       </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -13331,6 +14312,9 @@
       <c r="G12" t="n">
         <v>100</v>
       </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -13358,6 +14342,9 @@
       <c r="G13" t="n">
         <v>100</v>
       </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -13385,6 +14372,9 @@
       <c r="G14" t="n">
         <v>100</v>
       </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -13412,6 +14402,9 @@
       <c r="G15" t="n">
         <v>100</v>
       </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -13439,6 +14432,9 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -13466,6 +14462,9 @@
       <c r="G17" t="n">
         <v>100</v>
       </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -13493,6 +14492,9 @@
       <c r="G18" t="n">
         <v>0</v>
       </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -13520,6 +14522,9 @@
       <c r="G19" t="n">
         <v>0</v>
       </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -13547,6 +14552,9 @@
       <c r="G20" t="n">
         <v>0</v>
       </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -13574,6 +14582,9 @@
       <c r="G21" t="n">
         <v>0</v>
       </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -13601,6 +14612,9 @@
       <c r="G22" t="n">
         <v>100</v>
       </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -13628,6 +14642,9 @@
       <c r="G23" t="n">
         <v>0</v>
       </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -13655,6 +14672,9 @@
       <c r="G24" t="n">
         <v>0</v>
       </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -13682,6 +14702,9 @@
       <c r="G25" t="n">
         <v>100</v>
       </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -13709,6 +14732,9 @@
       <c r="G26" t="n">
         <v>0</v>
       </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -13736,6 +14762,9 @@
       <c r="G27" t="n">
         <v>100</v>
       </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -13763,6 +14792,9 @@
       <c r="G28" t="n">
         <v>0</v>
       </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -13790,6 +14822,9 @@
       <c r="G29" t="n">
         <v>0</v>
       </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -13817,6 +14852,9 @@
       <c r="G30" t="n">
         <v>100</v>
       </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -13844,6 +14882,9 @@
       <c r="G31" t="n">
         <v>0</v>
       </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -13871,6 +14912,9 @@
       <c r="G32" t="n">
         <v>100</v>
       </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -13898,6 +14942,9 @@
       <c r="G33" t="n">
         <v>0</v>
       </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -13925,6 +14972,9 @@
       <c r="G34" t="n">
         <v>0</v>
       </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -13952,6 +15002,9 @@
       <c r="G35" t="n">
         <v>0</v>
       </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -13979,6 +15032,9 @@
       <c r="G36" t="n">
         <v>100</v>
       </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -14006,6 +15062,9 @@
       <c r="G37" t="n">
         <v>100</v>
       </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -14033,6 +15092,9 @@
       <c r="G38" t="n">
         <v>0</v>
       </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -14060,6 +15122,9 @@
       <c r="G39" t="n">
         <v>0</v>
       </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -14087,6 +15152,9 @@
       <c r="G40" t="n">
         <v>100</v>
       </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -14114,6 +15182,9 @@
       <c r="G41" t="n">
         <v>100</v>
       </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -14141,6 +15212,9 @@
       <c r="G42" t="n">
         <v>100</v>
       </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -14168,6 +15242,9 @@
       <c r="G43" t="n">
         <v>100</v>
       </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -14195,6 +15272,9 @@
       <c r="G44" t="n">
         <v>0</v>
       </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -14222,6 +15302,9 @@
       <c r="G45" t="n">
         <v>100</v>
       </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -14249,6 +15332,9 @@
       <c r="G46" t="n">
         <v>100</v>
       </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -14276,6 +15362,9 @@
       <c r="G47" t="n">
         <v>100</v>
       </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -14303,6 +15392,9 @@
       <c r="G48" t="n">
         <v>0</v>
       </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -14330,6 +15422,9 @@
       <c r="G49" t="n">
         <v>100</v>
       </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -14357,6 +15452,9 @@
       <c r="G50" t="n">
         <v>0</v>
       </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -14384,6 +15482,9 @@
       <c r="G51" t="n">
         <v>0</v>
       </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -14411,6 +15512,9 @@
       <c r="G52" t="n">
         <v>100</v>
       </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -14438,6 +15542,9 @@
       <c r="G53" t="n">
         <v>100</v>
       </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -14465,6 +15572,9 @@
       <c r="G54" t="n">
         <v>0</v>
       </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -14492,6 +15602,9 @@
       <c r="G55" t="n">
         <v>100</v>
       </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -14519,6 +15632,9 @@
       <c r="G56" t="n">
         <v>100</v>
       </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -14546,6 +15662,9 @@
       <c r="G57" t="n">
         <v>100</v>
       </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -14573,6 +15692,9 @@
       <c r="G58" t="n">
         <v>100</v>
       </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -14600,6 +15722,9 @@
       <c r="G59" t="n">
         <v>0</v>
       </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -14626,6 +15751,9 @@
       </c>
       <c r="G60" t="n">
         <v>100</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Course Outcomes.xlsx
+++ b/Course Outcomes.xlsx
@@ -363,7 +363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF60"/>
+  <dimension ref="A1:AQ60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,39 @@
       <c r="AF1" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="AG1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -547,6 +580,17 @@
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -667,6 +711,17 @@
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -787,6 +842,17 @@
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -825,44 +891,95 @@
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>INTERNALS Total obtained</t>
+          <t>INT Total obtained</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>INTERNALS Total Attempted</t>
+          <t>INT Total Attempted</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>INTERNALS Percentage</t>
+          <t>INT Percentage</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>INTERNALS Grades on
+          <t>INT Grades on
 scale of 3</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>ENDSEM obtained</t>
+          <t>END obtained</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>ENDSEM Attempted</t>
+          <t>END Attempted</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>ENDSEM Percentage</t>
+          <t>END Percentage</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>ENDSEM Grades on
+          <t>END Grades on
 scale of 3</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 3</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 2</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 1</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>INT
+ Avg Grade</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>Total END
+Grade 3</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Total END
+Grade 2</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>Total END
+Grade 1</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>END
+ Avg Grade</t>
         </is>
       </c>
     </row>
@@ -965,6 +1082,17 @@
       <c r="AF6" t="n">
         <v>3</v>
       </c>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1065,6 +1193,37 @@
       <c r="AF7" t="n">
         <v>3</v>
       </c>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Number:</t>
+        </is>
+      </c>
+      <c r="AJ7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1.618181818181818</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1.727272727272727</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1165,6 +1324,17 @@
       <c r="AF8" t="n">
         <v>1</v>
       </c>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1265,6 +1435,33 @@
       <c r="AF9" t="n">
         <v>3</v>
       </c>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Percentage:</t>
+        </is>
+      </c>
+      <c r="AJ9" t="n">
+        <v>23.63636363636364</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>14.54545454545454</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>61.81818181818181</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="n">
+        <v>25.45454545454545</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>21.81818181818182</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>52.72727272727272</v>
+      </c>
+      <c r="AQ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1365,6 +1562,17 @@
       <c r="AF10" t="n">
         <v>1</v>
       </c>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1467,6 +1675,17 @@
       <c r="AF11" t="n">
         <v>1</v>
       </c>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1567,6 +1786,17 @@
       <c r="AF12" t="n">
         <v>1</v>
       </c>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1667,6 +1897,23 @@
       <c r="AF13" t="n">
         <v>1</v>
       </c>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>Number of Students:</t>
+        </is>
+      </c>
+      <c r="AM13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1767,6 +2014,17 @@
       <c r="AF14" t="n">
         <v>3</v>
       </c>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1867,6 +2125,17 @@
       <c r="AF15" t="n">
         <v>3</v>
       </c>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1967,6 +2236,17 @@
       <c r="AF16" t="n">
         <v>3</v>
       </c>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2067,6 +2347,17 @@
       <c r="AF17" t="n">
         <v>1</v>
       </c>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2167,6 +2458,17 @@
       <c r="AF18" t="n">
         <v>1</v>
       </c>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2267,6 +2569,17 @@
       <c r="AF19" t="n">
         <v>1</v>
       </c>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2367,6 +2680,17 @@
       <c r="AF20" t="n">
         <v>1</v>
       </c>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2467,6 +2791,17 @@
       <c r="AF21" t="n">
         <v>2</v>
       </c>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2567,6 +2902,17 @@
       <c r="AF22" t="n">
         <v>3</v>
       </c>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2669,6 +3015,17 @@
       <c r="AF23" t="n">
         <v>1</v>
       </c>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2769,6 +3126,17 @@
       <c r="AF24" t="n">
         <v>1</v>
       </c>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2871,6 +3239,17 @@
       <c r="AF25" t="n">
         <v>1</v>
       </c>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2971,6 +3350,17 @@
       <c r="AF26" t="n">
         <v>3</v>
       </c>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr"/>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3071,6 +3461,17 @@
       <c r="AF27" t="n">
         <v>1</v>
       </c>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3171,6 +3572,17 @@
       <c r="AF28" t="n">
         <v>1</v>
       </c>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3271,6 +3683,17 @@
       <c r="AF29" t="n">
         <v>2</v>
       </c>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3371,6 +3794,17 @@
       <c r="AF30" t="n">
         <v>3</v>
       </c>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3471,6 +3905,17 @@
       <c r="AF31" t="n">
         <v>1</v>
       </c>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3571,6 +4016,17 @@
       <c r="AF32" t="n">
         <v>2</v>
       </c>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="inlineStr"/>
+      <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3671,6 +4127,17 @@
       <c r="AF33" t="n">
         <v>1</v>
       </c>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="inlineStr"/>
+      <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3771,6 +4238,17 @@
       <c r="AF34" t="n">
         <v>3</v>
       </c>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="inlineStr"/>
+      <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3871,6 +4349,17 @@
       <c r="AF35" t="n">
         <v>1</v>
       </c>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="inlineStr"/>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3973,6 +4462,17 @@
       <c r="AF36" t="n">
         <v>2</v>
       </c>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="inlineStr"/>
+      <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4073,6 +4573,17 @@
       <c r="AF37" t="n">
         <v>1</v>
       </c>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="inlineStr"/>
+      <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -4173,6 +4684,17 @@
       <c r="AF38" t="n">
         <v>1</v>
       </c>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="inlineStr"/>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4273,6 +4795,17 @@
       <c r="AF39" t="n">
         <v>1</v>
       </c>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
+      <c r="AO39" t="inlineStr"/>
+      <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4373,6 +4906,17 @@
       <c r="AF40" t="n">
         <v>3</v>
       </c>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
+      <c r="AO40" t="inlineStr"/>
+      <c r="AP40" t="inlineStr"/>
+      <c r="AQ40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -4473,6 +5017,17 @@
       <c r="AF41" t="n">
         <v>3</v>
       </c>
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr"/>
+      <c r="AO41" t="inlineStr"/>
+      <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4573,6 +5128,17 @@
       <c r="AF42" t="n">
         <v>1</v>
       </c>
+      <c r="AG42" t="inlineStr"/>
+      <c r="AH42" t="inlineStr"/>
+      <c r="AI42" t="inlineStr"/>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr"/>
+      <c r="AO42" t="inlineStr"/>
+      <c r="AP42" t="inlineStr"/>
+      <c r="AQ42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -4673,6 +5239,17 @@
       <c r="AF43" t="n">
         <v>1</v>
       </c>
+      <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr"/>
+      <c r="AI43" t="inlineStr"/>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr"/>
+      <c r="AO43" t="inlineStr"/>
+      <c r="AP43" t="inlineStr"/>
+      <c r="AQ43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -4773,6 +5350,17 @@
       <c r="AF44" t="n">
         <v>1</v>
       </c>
+      <c r="AG44" t="inlineStr"/>
+      <c r="AH44" t="inlineStr"/>
+      <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr"/>
+      <c r="AO44" t="inlineStr"/>
+      <c r="AP44" t="inlineStr"/>
+      <c r="AQ44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -4873,6 +5461,17 @@
       <c r="AF45" t="n">
         <v>2</v>
       </c>
+      <c r="AG45" t="inlineStr"/>
+      <c r="AH45" t="inlineStr"/>
+      <c r="AI45" t="inlineStr"/>
+      <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr"/>
+      <c r="AN45" t="inlineStr"/>
+      <c r="AO45" t="inlineStr"/>
+      <c r="AP45" t="inlineStr"/>
+      <c r="AQ45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -4973,6 +5572,17 @@
       <c r="AF46" t="n">
         <v>3</v>
       </c>
+      <c r="AG46" t="inlineStr"/>
+      <c r="AH46" t="inlineStr"/>
+      <c r="AI46" t="inlineStr"/>
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
+      <c r="AN46" t="inlineStr"/>
+      <c r="AO46" t="inlineStr"/>
+      <c r="AP46" t="inlineStr"/>
+      <c r="AQ46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -5073,6 +5683,17 @@
       <c r="AF47" t="n">
         <v>1</v>
       </c>
+      <c r="AG47" t="inlineStr"/>
+      <c r="AH47" t="inlineStr"/>
+      <c r="AI47" t="inlineStr"/>
+      <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="inlineStr"/>
+      <c r="AO47" t="inlineStr"/>
+      <c r="AP47" t="inlineStr"/>
+      <c r="AQ47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -5173,6 +5794,17 @@
       <c r="AF48" t="n">
         <v>1</v>
       </c>
+      <c r="AG48" t="inlineStr"/>
+      <c r="AH48" t="inlineStr"/>
+      <c r="AI48" t="inlineStr"/>
+      <c r="AJ48" t="inlineStr"/>
+      <c r="AK48" t="inlineStr"/>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="inlineStr"/>
+      <c r="AN48" t="inlineStr"/>
+      <c r="AO48" t="inlineStr"/>
+      <c r="AP48" t="inlineStr"/>
+      <c r="AQ48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -5275,6 +5907,17 @@
       <c r="AF49" t="n">
         <v>2</v>
       </c>
+      <c r="AG49" t="inlineStr"/>
+      <c r="AH49" t="inlineStr"/>
+      <c r="AI49" t="inlineStr"/>
+      <c r="AJ49" t="inlineStr"/>
+      <c r="AK49" t="inlineStr"/>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="inlineStr"/>
+      <c r="AN49" t="inlineStr"/>
+      <c r="AO49" t="inlineStr"/>
+      <c r="AP49" t="inlineStr"/>
+      <c r="AQ49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -5375,6 +6018,17 @@
       <c r="AF50" t="n">
         <v>2</v>
       </c>
+      <c r="AG50" t="inlineStr"/>
+      <c r="AH50" t="inlineStr"/>
+      <c r="AI50" t="inlineStr"/>
+      <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="inlineStr"/>
+      <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="inlineStr"/>
+      <c r="AN50" t="inlineStr"/>
+      <c r="AO50" t="inlineStr"/>
+      <c r="AP50" t="inlineStr"/>
+      <c r="AQ50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -5475,6 +6129,17 @@
       <c r="AF51" t="n">
         <v>1</v>
       </c>
+      <c r="AG51" t="inlineStr"/>
+      <c r="AH51" t="inlineStr"/>
+      <c r="AI51" t="inlineStr"/>
+      <c r="AJ51" t="inlineStr"/>
+      <c r="AK51" t="inlineStr"/>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="inlineStr"/>
+      <c r="AN51" t="inlineStr"/>
+      <c r="AO51" t="inlineStr"/>
+      <c r="AP51" t="inlineStr"/>
+      <c r="AQ51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -5575,6 +6240,17 @@
       <c r="AF52" t="n">
         <v>2</v>
       </c>
+      <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="inlineStr"/>
+      <c r="AI52" t="inlineStr"/>
+      <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="inlineStr"/>
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr"/>
+      <c r="AO52" t="inlineStr"/>
+      <c r="AP52" t="inlineStr"/>
+      <c r="AQ52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -5675,6 +6351,17 @@
       <c r="AF53" t="n">
         <v>1</v>
       </c>
+      <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="inlineStr"/>
+      <c r="AI53" t="inlineStr"/>
+      <c r="AJ53" t="inlineStr"/>
+      <c r="AK53" t="inlineStr"/>
+      <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr"/>
+      <c r="AO53" t="inlineStr"/>
+      <c r="AP53" t="inlineStr"/>
+      <c r="AQ53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -5775,6 +6462,17 @@
       <c r="AF54" t="n">
         <v>2</v>
       </c>
+      <c r="AG54" t="inlineStr"/>
+      <c r="AH54" t="inlineStr"/>
+      <c r="AI54" t="inlineStr"/>
+      <c r="AJ54" t="inlineStr"/>
+      <c r="AK54" t="inlineStr"/>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr"/>
+      <c r="AO54" t="inlineStr"/>
+      <c r="AP54" t="inlineStr"/>
+      <c r="AQ54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -5875,6 +6573,17 @@
       <c r="AF55" t="n">
         <v>1</v>
       </c>
+      <c r="AG55" t="inlineStr"/>
+      <c r="AH55" t="inlineStr"/>
+      <c r="AI55" t="inlineStr"/>
+      <c r="AJ55" t="inlineStr"/>
+      <c r="AK55" t="inlineStr"/>
+      <c r="AL55" t="inlineStr"/>
+      <c r="AM55" t="inlineStr"/>
+      <c r="AN55" t="inlineStr"/>
+      <c r="AO55" t="inlineStr"/>
+      <c r="AP55" t="inlineStr"/>
+      <c r="AQ55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -5975,6 +6684,17 @@
       <c r="AF56" t="n">
         <v>1</v>
       </c>
+      <c r="AG56" t="inlineStr"/>
+      <c r="AH56" t="inlineStr"/>
+      <c r="AI56" t="inlineStr"/>
+      <c r="AJ56" t="inlineStr"/>
+      <c r="AK56" t="inlineStr"/>
+      <c r="AL56" t="inlineStr"/>
+      <c r="AM56" t="inlineStr"/>
+      <c r="AN56" t="inlineStr"/>
+      <c r="AO56" t="inlineStr"/>
+      <c r="AP56" t="inlineStr"/>
+      <c r="AQ56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -6075,6 +6795,17 @@
       <c r="AF57" t="n">
         <v>3</v>
       </c>
+      <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="inlineStr"/>
+      <c r="AI57" t="inlineStr"/>
+      <c r="AJ57" t="inlineStr"/>
+      <c r="AK57" t="inlineStr"/>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="inlineStr"/>
+      <c r="AN57" t="inlineStr"/>
+      <c r="AO57" t="inlineStr"/>
+      <c r="AP57" t="inlineStr"/>
+      <c r="AQ57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -6175,6 +6906,17 @@
       <c r="AF58" t="n">
         <v>2</v>
       </c>
+      <c r="AG58" t="inlineStr"/>
+      <c r="AH58" t="inlineStr"/>
+      <c r="AI58" t="inlineStr"/>
+      <c r="AJ58" t="inlineStr"/>
+      <c r="AK58" t="inlineStr"/>
+      <c r="AL58" t="inlineStr"/>
+      <c r="AM58" t="inlineStr"/>
+      <c r="AN58" t="inlineStr"/>
+      <c r="AO58" t="inlineStr"/>
+      <c r="AP58" t="inlineStr"/>
+      <c r="AQ58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -6275,6 +7017,17 @@
       <c r="AF59" t="n">
         <v>2</v>
       </c>
+      <c r="AG59" t="inlineStr"/>
+      <c r="AH59" t="inlineStr"/>
+      <c r="AI59" t="inlineStr"/>
+      <c r="AJ59" t="inlineStr"/>
+      <c r="AK59" t="inlineStr"/>
+      <c r="AL59" t="inlineStr"/>
+      <c r="AM59" t="inlineStr"/>
+      <c r="AN59" t="inlineStr"/>
+      <c r="AO59" t="inlineStr"/>
+      <c r="AP59" t="inlineStr"/>
+      <c r="AQ59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -6377,6 +7130,17 @@
       <c r="AF60" t="n">
         <v>2</v>
       </c>
+      <c r="AG60" t="inlineStr"/>
+      <c r="AH60" t="inlineStr"/>
+      <c r="AI60" t="inlineStr"/>
+      <c r="AJ60" t="inlineStr"/>
+      <c r="AK60" t="inlineStr"/>
+      <c r="AL60" t="inlineStr"/>
+      <c r="AM60" t="inlineStr"/>
+      <c r="AN60" t="inlineStr"/>
+      <c r="AO60" t="inlineStr"/>
+      <c r="AP60" t="inlineStr"/>
+      <c r="AQ60" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -6389,7 +7153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T60"/>
+  <dimension ref="A1:AE60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6455,6 +7219,39 @@
       <c r="T1" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -6501,6 +7298,17 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -6561,6 +7369,17 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -6621,6 +7440,17 @@
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -6647,44 +7477,95 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>INTERNALS Total obtained</t>
+          <t>INT Total obtained</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>INTERNALS Total Attempted</t>
+          <t>INT Total Attempted</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>INTERNALS Percentage</t>
+          <t>INT Percentage</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>INTERNALS Grades on
+          <t>INT Grades on
 scale of 3</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>ENDSEM obtained</t>
+          <t>END obtained</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>ENDSEM Attempted</t>
+          <t>END Attempted</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>ENDSEM Percentage</t>
+          <t>END Percentage</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>ENDSEM Grades on
+          <t>END Grades on
 scale of 3</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 3</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 2</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 1</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>INT
+ Avg Grade</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Total END
+Grade 3</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Total END
+Grade 2</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Total END
+Grade 1</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>END
+ Avg Grade</t>
         </is>
       </c>
     </row>
@@ -6751,6 +7632,17 @@
       <c r="T6" t="n">
         <v>1</v>
       </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -6815,6 +7707,37 @@
       <c r="T7" t="n">
         <v>1</v>
       </c>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Number:</t>
+        </is>
+      </c>
+      <c r="X7" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -6879,6 +7802,17 @@
       <c r="T8" t="n">
         <v>1</v>
       </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -6943,6 +7877,33 @@
       <c r="T9" t="n">
         <v>1</v>
       </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Percentage:</t>
+        </is>
+      </c>
+      <c r="X9" t="n">
+        <v>47.27272727272727</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>25.45454545454545</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>27.27272727272727</v>
+      </c>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -7005,6 +7966,17 @@
       <c r="T10" t="n">
         <v>1</v>
       </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -7065,6 +8037,17 @@
       <c r="T11" t="n">
         <v>1</v>
       </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -7129,6 +8112,17 @@
       <c r="T12" t="n">
         <v>1</v>
       </c>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -7193,6 +8187,23 @@
       <c r="T13" t="n">
         <v>1</v>
       </c>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>Number of Students:</t>
+        </is>
+      </c>
+      <c r="AA13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -7255,6 +8266,17 @@
       <c r="T14" t="n">
         <v>1</v>
       </c>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -7319,6 +8341,17 @@
       <c r="T15" t="n">
         <v>1</v>
       </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -7383,6 +8416,17 @@
       <c r="T16" t="n">
         <v>1</v>
       </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -7447,6 +8491,17 @@
       <c r="T17" t="n">
         <v>1</v>
       </c>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -7511,6 +8566,17 @@
       <c r="T18" t="n">
         <v>1</v>
       </c>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -7575,6 +8641,17 @@
       <c r="T19" t="n">
         <v>1</v>
       </c>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -7639,6 +8716,17 @@
       <c r="T20" t="n">
         <v>1</v>
       </c>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -7703,6 +8791,17 @@
       <c r="T21" t="n">
         <v>1</v>
       </c>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -7767,6 +8866,17 @@
       <c r="T22" t="n">
         <v>1</v>
       </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -7831,6 +8941,17 @@
       <c r="T23" t="n">
         <v>1</v>
       </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -7895,6 +9016,17 @@
       <c r="T24" t="n">
         <v>1</v>
       </c>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -7957,6 +9089,17 @@
       <c r="T25" t="n">
         <v>1</v>
       </c>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -8021,6 +9164,17 @@
       <c r="T26" t="n">
         <v>1</v>
       </c>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -8085,6 +9239,17 @@
       <c r="T27" t="n">
         <v>1</v>
       </c>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -8149,6 +9314,17 @@
       <c r="T28" t="n">
         <v>1</v>
       </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -8213,6 +9389,17 @@
       <c r="T29" t="n">
         <v>1</v>
       </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -8277,6 +9464,17 @@
       <c r="T30" t="n">
         <v>1</v>
       </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -8341,6 +9539,17 @@
       <c r="T31" t="n">
         <v>1</v>
       </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -8405,6 +9614,17 @@
       <c r="T32" t="n">
         <v>1</v>
       </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -8469,6 +9689,17 @@
       <c r="T33" t="n">
         <v>1</v>
       </c>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -8533,6 +9764,17 @@
       <c r="T34" t="n">
         <v>1</v>
       </c>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -8597,6 +9839,17 @@
       <c r="T35" t="n">
         <v>1</v>
       </c>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -8661,6 +9914,17 @@
       <c r="T36" t="n">
         <v>1</v>
       </c>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -8725,6 +9989,17 @@
       <c r="T37" t="n">
         <v>1</v>
       </c>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -8789,6 +10064,17 @@
       <c r="T38" t="n">
         <v>1</v>
       </c>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -8853,6 +10139,17 @@
       <c r="T39" t="n">
         <v>1</v>
       </c>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -8917,6 +10214,17 @@
       <c r="T40" t="n">
         <v>1</v>
       </c>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -8981,6 +10289,17 @@
       <c r="T41" t="n">
         <v>1</v>
       </c>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -9045,6 +10364,17 @@
       <c r="T42" t="n">
         <v>1</v>
       </c>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -9109,6 +10439,17 @@
       <c r="T43" t="n">
         <v>1</v>
       </c>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -9173,6 +10514,17 @@
       <c r="T44" t="n">
         <v>1</v>
       </c>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -9237,6 +10589,17 @@
       <c r="T45" t="n">
         <v>1</v>
       </c>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -9301,6 +10664,17 @@
       <c r="T46" t="n">
         <v>1</v>
       </c>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -9365,6 +10739,17 @@
       <c r="T47" t="n">
         <v>1</v>
       </c>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -9429,6 +10814,17 @@
       <c r="T48" t="n">
         <v>1</v>
       </c>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -9493,6 +10889,17 @@
       <c r="T49" t="n">
         <v>1</v>
       </c>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -9557,6 +10964,17 @@
       <c r="T50" t="n">
         <v>1</v>
       </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -9621,6 +11039,17 @@
       <c r="T51" t="n">
         <v>1</v>
       </c>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -9685,6 +11114,17 @@
       <c r="T52" t="n">
         <v>1</v>
       </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -9749,6 +11189,17 @@
       <c r="T53" t="n">
         <v>1</v>
       </c>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -9813,6 +11264,17 @@
       <c r="T54" t="n">
         <v>1</v>
       </c>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -9877,6 +11339,17 @@
       <c r="T55" t="n">
         <v>1</v>
       </c>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -9941,6 +11414,17 @@
       <c r="T56" t="n">
         <v>1</v>
       </c>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -10005,6 +11489,17 @@
       <c r="T57" t="n">
         <v>1</v>
       </c>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -10069,6 +11564,17 @@
       <c r="T58" t="n">
         <v>1</v>
       </c>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -10133,6 +11639,17 @@
       <c r="T59" t="n">
         <v>1</v>
       </c>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -10197,6 +11714,17 @@
       <c r="T60" t="n">
         <v>1</v>
       </c>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
+      <c r="AC60" t="inlineStr"/>
+      <c r="AD60" t="inlineStr"/>
+      <c r="AE60" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -10209,7 +11737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:AB60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10266,6 +11794,39 @@
       <c r="Q1" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -10303,6 +11864,17 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -10348,6 +11920,17 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -10393,6 +11976,17 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -10416,44 +12010,95 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>INTERNALS Total obtained</t>
+          <t>INT Total obtained</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>INTERNALS Total Attempted</t>
+          <t>INT Total Attempted</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>INTERNALS Percentage</t>
+          <t>INT Percentage</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>INTERNALS Grades on
+          <t>INT Grades on
 scale of 3</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>ENDSEM obtained</t>
+          <t>END obtained</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>ENDSEM Attempted</t>
+          <t>END Attempted</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>ENDSEM Percentage</t>
+          <t>END Percentage</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>ENDSEM Grades on
+          <t>END Grades on
 scale of 3</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 3</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 2</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 1</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>INT
+ Avg Grade</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Total END
+Grade 3</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Total END
+Grade 2</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Total END
+Grade 1</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>END
+ Avg Grade</t>
         </is>
       </c>
     </row>
@@ -10509,6 +12154,17 @@
       <c r="Q6" t="n">
         <v>1</v>
       </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -10562,6 +12218,37 @@
       <c r="Q7" t="n">
         <v>1</v>
       </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Number:</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v>25</v>
+      </c>
+      <c r="V7" t="n">
+        <v>6</v>
+      </c>
+      <c r="W7" t="n">
+        <v>24</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2.018181818181818</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -10615,6 +12302,17 @@
       <c r="Q8" t="n">
         <v>1</v>
       </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -10670,6 +12368,33 @@
       <c r="Q9" t="n">
         <v>1</v>
       </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Percentage:</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>45.45454545454545</v>
+      </c>
+      <c r="V9" t="n">
+        <v>10.90909090909091</v>
+      </c>
+      <c r="W9" t="n">
+        <v>43.63636363636363</v>
+      </c>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -10723,6 +12448,17 @@
       <c r="Q10" t="n">
         <v>1</v>
       </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -10778,6 +12514,17 @@
       <c r="Q11" t="n">
         <v>1</v>
       </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -10831,6 +12578,17 @@
       <c r="Q12" t="n">
         <v>1</v>
       </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -10884,6 +12642,23 @@
       <c r="Q13" t="n">
         <v>1</v>
       </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Number of Students:</t>
+        </is>
+      </c>
+      <c r="X13" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -10939,6 +12714,17 @@
       <c r="Q14" t="n">
         <v>1</v>
       </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -10992,6 +12778,17 @@
       <c r="Q15" t="n">
         <v>1</v>
       </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -11045,6 +12842,17 @@
       <c r="Q16" t="n">
         <v>1</v>
       </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -11100,6 +12908,17 @@
       <c r="Q17" t="n">
         <v>1</v>
       </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -11155,6 +12974,17 @@
       <c r="Q18" t="n">
         <v>1</v>
       </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -11210,6 +13040,17 @@
       <c r="Q19" t="n">
         <v>1</v>
       </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -11263,6 +13104,17 @@
       <c r="Q20" t="n">
         <v>1</v>
       </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -11318,6 +13170,17 @@
       <c r="Q21" t="n">
         <v>1</v>
       </c>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -11371,6 +13234,17 @@
       <c r="Q22" t="n">
         <v>1</v>
       </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -11424,6 +13298,17 @@
       <c r="Q23" t="n">
         <v>1</v>
       </c>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -11477,6 +13362,17 @@
       <c r="Q24" t="n">
         <v>1</v>
       </c>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -11530,6 +13426,17 @@
       <c r="Q25" t="n">
         <v>1</v>
       </c>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -11585,6 +13492,17 @@
       <c r="Q26" t="n">
         <v>1</v>
       </c>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -11640,6 +13558,17 @@
       <c r="Q27" t="n">
         <v>1</v>
       </c>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -11693,6 +13622,17 @@
       <c r="Q28" t="n">
         <v>1</v>
       </c>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -11748,6 +13688,17 @@
       <c r="Q29" t="n">
         <v>1</v>
       </c>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -11803,6 +13754,17 @@
       <c r="Q30" t="n">
         <v>1</v>
       </c>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -11858,6 +13820,17 @@
       <c r="Q31" t="n">
         <v>1</v>
       </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -11911,6 +13884,17 @@
       <c r="Q32" t="n">
         <v>1</v>
       </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -11964,6 +13948,17 @@
       <c r="Q33" t="n">
         <v>1</v>
       </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -12017,6 +14012,17 @@
       <c r="Q34" t="n">
         <v>1</v>
       </c>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -12072,6 +14078,17 @@
       <c r="Q35" t="n">
         <v>1</v>
       </c>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -12125,6 +14142,17 @@
       <c r="Q36" t="n">
         <v>1</v>
       </c>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -12178,6 +14206,17 @@
       <c r="Q37" t="n">
         <v>1</v>
       </c>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -12233,6 +14272,17 @@
       <c r="Q38" t="n">
         <v>1</v>
       </c>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -12286,6 +14336,17 @@
       <c r="Q39" t="n">
         <v>1</v>
       </c>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -12341,6 +14402,17 @@
       <c r="Q40" t="n">
         <v>1</v>
       </c>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -12394,6 +14466,17 @@
       <c r="Q41" t="n">
         <v>1</v>
       </c>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -12447,6 +14530,17 @@
       <c r="Q42" t="n">
         <v>1</v>
       </c>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -12500,6 +14594,17 @@
       <c r="Q43" t="n">
         <v>1</v>
       </c>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -12553,6 +14658,17 @@
       <c r="Q44" t="n">
         <v>1</v>
       </c>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -12606,6 +14722,17 @@
       <c r="Q45" t="n">
         <v>1</v>
       </c>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -12661,6 +14788,17 @@
       <c r="Q46" t="n">
         <v>1</v>
       </c>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -12714,6 +14852,17 @@
       <c r="Q47" t="n">
         <v>1</v>
       </c>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -12769,6 +14918,17 @@
       <c r="Q48" t="n">
         <v>1</v>
       </c>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -12822,6 +14982,17 @@
       <c r="Q49" t="n">
         <v>1</v>
       </c>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -12875,6 +15046,17 @@
       <c r="Q50" t="n">
         <v>1</v>
       </c>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -12928,6 +15110,17 @@
       <c r="Q51" t="n">
         <v>1</v>
       </c>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -12981,6 +15174,17 @@
       <c r="Q52" t="n">
         <v>1</v>
       </c>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -13036,6 +15240,17 @@
       <c r="Q53" t="n">
         <v>1</v>
       </c>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -13091,6 +15306,17 @@
       <c r="Q54" t="n">
         <v>1</v>
       </c>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -13144,6 +15370,17 @@
       <c r="Q55" t="n">
         <v>1</v>
       </c>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -13199,6 +15436,17 @@
       <c r="Q56" t="n">
         <v>1</v>
       </c>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -13252,6 +15500,17 @@
       <c r="Q57" t="n">
         <v>1</v>
       </c>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -13305,6 +15564,17 @@
       <c r="Q58" t="n">
         <v>1</v>
       </c>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -13358,6 +15628,17 @@
       <c r="Q59" t="n">
         <v>1</v>
       </c>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -13411,6 +15692,17 @@
       <c r="Q60" t="n">
         <v>1</v>
       </c>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -13423,7 +15715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:AA60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13477,6 +15769,39 @@
       <c r="P1" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -13511,6 +15836,17 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -13551,6 +15887,17 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -13591,6 +15938,17 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -13613,44 +15971,95 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>INTERNALS Total obtained</t>
+          <t>INT Total obtained</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>INTERNALS Total Attempted</t>
+          <t>INT Total Attempted</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>INTERNALS Percentage</t>
+          <t>INT Percentage</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>INTERNALS Grades on
+          <t>INT Grades on
 scale of 3</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>ENDSEM obtained</t>
+          <t>END obtained</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>ENDSEM Attempted</t>
+          <t>END Attempted</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>ENDSEM Percentage</t>
+          <t>END Percentage</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>ENDSEM Grades on
+          <t>END Grades on
 scale of 3</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 3</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 2</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 1</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>INT
+ Avg Grade</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Total END
+Grade 3</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Total END
+Grade 2</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Total END
+Grade 1</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>END
+ Avg Grade</t>
         </is>
       </c>
     </row>
@@ -13705,6 +16114,17 @@
       <c r="P6" t="n">
         <v>3</v>
       </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -13757,6 +16177,37 @@
       <c r="P7" t="n">
         <v>2</v>
       </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Number:</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>26</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>27</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.981818181818182</v>
+      </c>
+      <c r="X7" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2.109090909090909</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -13809,6 +16260,17 @@
       <c r="P8" t="n">
         <v>2</v>
       </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -13861,6 +16323,33 @@
       <c r="P9" t="n">
         <v>3</v>
       </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Percentage:</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>47.27272727272727</v>
+      </c>
+      <c r="U9" t="n">
+        <v>3.636363636363636</v>
+      </c>
+      <c r="V9" t="n">
+        <v>49.09090909090909</v>
+      </c>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="n">
+        <v>47.27272727272727</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>16.36363636363636</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>36.36363636363637</v>
+      </c>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -13913,6 +16402,17 @@
       <c r="P10" t="n">
         <v>3</v>
       </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -13965,6 +16465,17 @@
       <c r="P11" t="n">
         <v>3</v>
       </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -14017,6 +16528,17 @@
       <c r="P12" t="n">
         <v>3</v>
       </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -14069,6 +16591,23 @@
       <c r="P13" t="n">
         <v>3</v>
       </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Number of Students:</t>
+        </is>
+      </c>
+      <c r="W13" t="n">
+        <v>55</v>
+      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -14121,6 +16660,17 @@
       <c r="P14" t="n">
         <v>3</v>
       </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -14173,6 +16723,17 @@
       <c r="P15" t="n">
         <v>1</v>
       </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -14225,6 +16786,17 @@
       <c r="P16" t="n">
         <v>3</v>
       </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -14277,6 +16849,17 @@
       <c r="P17" t="n">
         <v>3</v>
       </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -14329,6 +16912,17 @@
       <c r="P18" t="n">
         <v>2</v>
       </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -14381,6 +16975,17 @@
       <c r="P19" t="n">
         <v>3</v>
       </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -14433,6 +17038,17 @@
       <c r="P20" t="n">
         <v>3</v>
       </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -14485,6 +17101,17 @@
       <c r="P21" t="n">
         <v>3</v>
       </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -14537,6 +17164,17 @@
       <c r="P22" t="n">
         <v>2</v>
       </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -14591,6 +17229,17 @@
       <c r="P23" t="n">
         <v>1</v>
       </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -14643,6 +17292,17 @@
       <c r="P24" t="n">
         <v>2</v>
       </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -14695,6 +17355,17 @@
       <c r="P25" t="n">
         <v>3</v>
       </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -14747,6 +17418,17 @@
       <c r="P26" t="n">
         <v>3</v>
       </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -14799,6 +17481,17 @@
       <c r="P27" t="n">
         <v>1</v>
       </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -14851,6 +17544,17 @@
       <c r="P28" t="n">
         <v>1</v>
       </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -14903,6 +17607,17 @@
       <c r="P29" t="n">
         <v>1</v>
       </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -14955,6 +17670,17 @@
       <c r="P30" t="n">
         <v>3</v>
       </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -15007,6 +17733,17 @@
       <c r="P31" t="n">
         <v>3</v>
       </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -15059,6 +17796,17 @@
       <c r="P32" t="n">
         <v>1</v>
       </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -15111,6 +17859,17 @@
       <c r="P33" t="n">
         <v>3</v>
       </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -15163,6 +17922,17 @@
       <c r="P34" t="n">
         <v>3</v>
       </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -15215,6 +17985,17 @@
       <c r="P35" t="n">
         <v>3</v>
       </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -15269,6 +18050,17 @@
       <c r="P36" t="n">
         <v>2</v>
       </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -15321,6 +18113,17 @@
       <c r="P37" t="n">
         <v>1</v>
       </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -15373,6 +18176,17 @@
       <c r="P38" t="n">
         <v>3</v>
       </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -15427,6 +18241,17 @@
       <c r="P39" t="n">
         <v>2</v>
       </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -15479,6 +18304,17 @@
       <c r="P40" t="n">
         <v>3</v>
       </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -15531,6 +18367,17 @@
       <c r="P41" t="n">
         <v>3</v>
       </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -15585,6 +18432,17 @@
       <c r="P42" t="n">
         <v>3</v>
       </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -15637,6 +18495,17 @@
       <c r="P43" t="n">
         <v>1</v>
       </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -15689,6 +18558,17 @@
       <c r="P44" t="n">
         <v>3</v>
       </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -15741,6 +18621,17 @@
       <c r="P45" t="n">
         <v>2</v>
       </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -15793,6 +18684,17 @@
       <c r="P46" t="n">
         <v>3</v>
       </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -15845,6 +18747,17 @@
       <c r="P47" t="n">
         <v>2</v>
       </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -15897,6 +18810,17 @@
       <c r="P48" t="n">
         <v>1</v>
       </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -15951,6 +18875,17 @@
       <c r="P49" t="n">
         <v>1</v>
       </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -16003,6 +18938,17 @@
       <c r="P50" t="n">
         <v>1</v>
       </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -16057,6 +19003,17 @@
       <c r="P51" t="n">
         <v>1</v>
       </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -16109,6 +19066,17 @@
       <c r="P52" t="n">
         <v>1</v>
       </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -16163,6 +19131,17 @@
       <c r="P53" t="n">
         <v>1</v>
       </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -16217,6 +19196,17 @@
       <c r="P54" t="n">
         <v>1</v>
       </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -16271,6 +19261,17 @@
       <c r="P55" t="n">
         <v>1</v>
       </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -16325,6 +19326,17 @@
       <c r="P56" t="n">
         <v>1</v>
       </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -16379,6 +19391,17 @@
       <c r="P57" t="n">
         <v>1</v>
       </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -16433,6 +19456,17 @@
       <c r="P58" t="n">
         <v>1</v>
       </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -16487,6 +19521,17 @@
       <c r="P59" t="n">
         <v>1</v>
       </c>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -16541,6 +19586,17 @@
       <c r="P60" t="n">
         <v>3</v>
       </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -16553,7 +19609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:AB60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16610,6 +19666,39 @@
       <c r="Q1" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -16647,6 +19736,17 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -16692,6 +19792,17 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -16737,6 +19848,17 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -16760,44 +19882,95 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>INTERNALS Total obtained</t>
+          <t>INT Total obtained</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>INTERNALS Total Attempted</t>
+          <t>INT Total Attempted</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>INTERNALS Percentage</t>
+          <t>INT Percentage</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>INTERNALS Grades on
+          <t>INT Grades on
 scale of 3</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>ENDSEM obtained</t>
+          <t>END obtained</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>ENDSEM Attempted</t>
+          <t>END Attempted</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>ENDSEM Percentage</t>
+          <t>END Percentage</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>ENDSEM Grades on
+          <t>END Grades on
 scale of 3</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 3</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 2</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 1</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>INT
+ Avg Grade</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Total END
+Grade 3</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Total END
+Grade 2</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Total END
+Grade 1</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>END
+ Avg Grade</t>
         </is>
       </c>
     </row>
@@ -16857,6 +20030,17 @@
       <c r="Q6" t="n">
         <v>3</v>
       </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -16914,6 +20098,37 @@
       <c r="Q7" t="n">
         <v>3</v>
       </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Number:</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v>16</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>39</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.581818181818182</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>2.218181818181818</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -16971,6 +20186,17 @@
       <c r="Q8" t="n">
         <v>2</v>
       </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -17028,6 +20254,33 @@
       <c r="Q9" t="n">
         <v>3</v>
       </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Percentage:</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>29.09090909090909</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>70.90909090909091</v>
+      </c>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="n">
+        <v>58.18181818181818</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>5.454545454545454</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>36.36363636363637</v>
+      </c>
+      <c r="AB9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -17085,6 +20338,17 @@
       <c r="Q10" t="n">
         <v>3</v>
       </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -17142,6 +20406,17 @@
       <c r="Q11" t="n">
         <v>1</v>
       </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -17199,6 +20474,17 @@
       <c r="Q12" t="n">
         <v>1</v>
       </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -17256,6 +20542,23 @@
       <c r="Q13" t="n">
         <v>1</v>
       </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Number of Students:</t>
+        </is>
+      </c>
+      <c r="X13" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -17313,6 +20616,17 @@
       <c r="Q14" t="n">
         <v>3</v>
       </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -17370,6 +20684,17 @@
       <c r="Q15" t="n">
         <v>1</v>
       </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -17427,6 +20752,17 @@
       <c r="Q16" t="n">
         <v>3</v>
       </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -17484,6 +20820,17 @@
       <c r="Q17" t="n">
         <v>3</v>
       </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -17541,6 +20888,17 @@
       <c r="Q18" t="n">
         <v>3</v>
       </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -17598,6 +20956,17 @@
       <c r="Q19" t="n">
         <v>3</v>
       </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -17655,6 +21024,17 @@
       <c r="Q20" t="n">
         <v>3</v>
       </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -17712,6 +21092,17 @@
       <c r="Q21" t="n">
         <v>3</v>
       </c>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -17769,6 +21160,17 @@
       <c r="Q22" t="n">
         <v>3</v>
       </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -17826,6 +21228,17 @@
       <c r="Q23" t="n">
         <v>1</v>
       </c>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -17883,6 +21296,17 @@
       <c r="Q24" t="n">
         <v>3</v>
       </c>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -17940,6 +21364,17 @@
       <c r="Q25" t="n">
         <v>3</v>
       </c>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -17997,6 +21432,17 @@
       <c r="Q26" t="n">
         <v>3</v>
       </c>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -18054,6 +21500,17 @@
       <c r="Q27" t="n">
         <v>1</v>
       </c>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -18111,6 +21568,17 @@
       <c r="Q28" t="n">
         <v>3</v>
       </c>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -18168,6 +21636,17 @@
       <c r="Q29" t="n">
         <v>1</v>
       </c>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -18225,6 +21704,17 @@
       <c r="Q30" t="n">
         <v>3</v>
       </c>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -18282,6 +21772,17 @@
       <c r="Q31" t="n">
         <v>3</v>
       </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -18339,6 +21840,17 @@
       <c r="Q32" t="n">
         <v>1</v>
       </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -18396,6 +21908,17 @@
       <c r="Q33" t="n">
         <v>3</v>
       </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -18453,6 +21976,17 @@
       <c r="Q34" t="n">
         <v>3</v>
       </c>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -18510,6 +22044,17 @@
       <c r="Q35" t="n">
         <v>3</v>
       </c>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -18567,6 +22112,17 @@
       <c r="Q36" t="n">
         <v>3</v>
       </c>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -18624,6 +22180,17 @@
       <c r="Q37" t="n">
         <v>3</v>
       </c>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -18681,6 +22248,17 @@
       <c r="Q38" t="n">
         <v>3</v>
       </c>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -18738,6 +22316,17 @@
       <c r="Q39" t="n">
         <v>3</v>
       </c>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -18795,6 +22384,17 @@
       <c r="Q40" t="n">
         <v>3</v>
       </c>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -18852,6 +22452,17 @@
       <c r="Q41" t="n">
         <v>3</v>
       </c>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -18909,6 +22520,17 @@
       <c r="Q42" t="n">
         <v>3</v>
       </c>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -18966,6 +22588,17 @@
       <c r="Q43" t="n">
         <v>1</v>
       </c>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -19023,6 +22656,17 @@
       <c r="Q44" t="n">
         <v>3</v>
       </c>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -19080,6 +22724,17 @@
       <c r="Q45" t="n">
         <v>3</v>
       </c>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -19137,6 +22792,17 @@
       <c r="Q46" t="n">
         <v>3</v>
       </c>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -19194,6 +22860,17 @@
       <c r="Q47" t="n">
         <v>1</v>
       </c>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -19251,6 +22928,17 @@
       <c r="Q48" t="n">
         <v>1</v>
       </c>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -19308,6 +22996,17 @@
       <c r="Q49" t="n">
         <v>1</v>
       </c>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -19365,6 +23064,17 @@
       <c r="Q50" t="n">
         <v>1</v>
       </c>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -19422,6 +23132,17 @@
       <c r="Q51" t="n">
         <v>1</v>
       </c>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -19479,6 +23200,17 @@
       <c r="Q52" t="n">
         <v>1</v>
       </c>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -19536,6 +23268,17 @@
       <c r="Q53" t="n">
         <v>2</v>
       </c>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -19593,6 +23336,17 @@
       <c r="Q54" t="n">
         <v>1</v>
       </c>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -19650,6 +23404,17 @@
       <c r="Q55" t="n">
         <v>1</v>
       </c>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -19707,6 +23472,17 @@
       <c r="Q56" t="n">
         <v>2</v>
       </c>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -19764,6 +23540,17 @@
       <c r="Q57" t="n">
         <v>1</v>
       </c>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -19821,6 +23608,17 @@
       <c r="Q58" t="n">
         <v>3</v>
       </c>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -19878,6 +23676,17 @@
       <c r="Q59" t="n">
         <v>1</v>
       </c>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -19935,6 +23744,17 @@
       <c r="Q60" t="n">
         <v>1</v>
       </c>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -19947,7 +23767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:AA60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20001,6 +23821,39 @@
       <c r="P1" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -20035,6 +23888,17 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -20075,6 +23939,17 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -20115,6 +23990,17 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -20137,44 +24023,95 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>INTERNALS Total obtained</t>
+          <t>INT Total obtained</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>INTERNALS Total Attempted</t>
+          <t>INT Total Attempted</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>INTERNALS Percentage</t>
+          <t>INT Percentage</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>INTERNALS Grades on
+          <t>INT Grades on
 scale of 3</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>ENDSEM obtained</t>
+          <t>END obtained</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>ENDSEM Attempted</t>
+          <t>END Attempted</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>ENDSEM Percentage</t>
+          <t>END Percentage</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>ENDSEM Grades on
+          <t>END Grades on
 scale of 3</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 3</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 2</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 1</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>INT
+ Avg Grade</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Total END
+Grade 3</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Total END
+Grade 2</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Total END
+Grade 1</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>END
+ Avg Grade</t>
         </is>
       </c>
     </row>
@@ -20231,6 +24168,17 @@
       <c r="P6" t="n">
         <v>3</v>
       </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -20285,6 +24233,37 @@
       <c r="P7" t="n">
         <v>1</v>
       </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Number:</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>32</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>23</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2.163636363636364</v>
+      </c>
+      <c r="X7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1.509090909090909</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -20339,6 +24318,17 @@
       <c r="P8" t="n">
         <v>1</v>
       </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -20393,6 +24383,33 @@
       <c r="P9" t="n">
         <v>1</v>
       </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Percentage:</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>58.18181818181818</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>41.81818181818181</v>
+      </c>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="n">
+        <v>23.63636363636364</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>3.636363636363636</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>72.72727272727273</v>
+      </c>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -20447,6 +24464,17 @@
       <c r="P10" t="n">
         <v>1</v>
       </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -20501,6 +24529,17 @@
       <c r="P11" t="n">
         <v>1</v>
       </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -20555,6 +24594,17 @@
       <c r="P12" t="n">
         <v>1</v>
       </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -20609,6 +24659,23 @@
       <c r="P13" t="n">
         <v>1</v>
       </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Number of Students:</t>
+        </is>
+      </c>
+      <c r="W13" t="n">
+        <v>55</v>
+      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -20663,6 +24730,17 @@
       <c r="P14" t="n">
         <v>2</v>
       </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -20717,6 +24795,17 @@
       <c r="P15" t="n">
         <v>1</v>
       </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -20771,6 +24860,17 @@
       <c r="P16" t="n">
         <v>3</v>
       </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -20825,6 +24925,17 @@
       <c r="P17" t="n">
         <v>3</v>
       </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -20879,6 +24990,17 @@
       <c r="P18" t="n">
         <v>1</v>
       </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -20933,6 +25055,17 @@
       <c r="P19" t="n">
         <v>1</v>
       </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -20987,6 +25120,17 @@
       <c r="P20" t="n">
         <v>1</v>
       </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -21041,6 +25185,17 @@
       <c r="P21" t="n">
         <v>1</v>
       </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -21095,6 +25250,17 @@
       <c r="P22" t="n">
         <v>1</v>
       </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -21149,6 +25315,17 @@
       <c r="P23" t="n">
         <v>1</v>
       </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -21203,6 +25380,17 @@
       <c r="P24" t="n">
         <v>1</v>
       </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -21257,6 +25445,17 @@
       <c r="P25" t="n">
         <v>3</v>
       </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -21311,6 +25510,17 @@
       <c r="P26" t="n">
         <v>1</v>
       </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -21365,6 +25575,17 @@
       <c r="P27" t="n">
         <v>1</v>
       </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -21419,6 +25640,17 @@
       <c r="P28" t="n">
         <v>1</v>
       </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -21473,6 +25705,17 @@
       <c r="P29" t="n">
         <v>2</v>
       </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -21527,6 +25770,17 @@
       <c r="P30" t="n">
         <v>3</v>
       </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -21581,6 +25835,17 @@
       <c r="P31" t="n">
         <v>1</v>
       </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -21635,6 +25900,17 @@
       <c r="P32" t="n">
         <v>1</v>
       </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -21689,6 +25965,17 @@
       <c r="P33" t="n">
         <v>1</v>
       </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -21743,6 +26030,17 @@
       <c r="P34" t="n">
         <v>1</v>
       </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -21797,6 +26095,17 @@
       <c r="P35" t="n">
         <v>3</v>
       </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -21851,6 +26160,17 @@
       <c r="P36" t="n">
         <v>3</v>
       </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -21905,6 +26225,17 @@
       <c r="P37" t="n">
         <v>1</v>
       </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -21959,6 +26290,17 @@
       <c r="P38" t="n">
         <v>1</v>
       </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -22011,6 +26353,17 @@
       <c r="P39" t="n">
         <v>1</v>
       </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -22065,6 +26418,17 @@
       <c r="P40" t="n">
         <v>1</v>
       </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -22119,6 +26483,17 @@
       <c r="P41" t="n">
         <v>1</v>
       </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -22171,6 +26546,17 @@
       <c r="P42" t="n">
         <v>1</v>
       </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -22225,6 +26611,17 @@
       <c r="P43" t="n">
         <v>1</v>
       </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -22279,6 +26676,17 @@
       <c r="P44" t="n">
         <v>1</v>
       </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -22333,6 +26741,17 @@
       <c r="P45" t="n">
         <v>3</v>
       </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -22387,6 +26806,17 @@
       <c r="P46" t="n">
         <v>3</v>
       </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -22441,6 +26871,17 @@
       <c r="P47" t="n">
         <v>1</v>
       </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -22495,6 +26936,17 @@
       <c r="P48" t="n">
         <v>1</v>
       </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -22549,6 +27001,17 @@
       <c r="P49" t="n">
         <v>1</v>
       </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -22603,6 +27066,17 @@
       <c r="P50" t="n">
         <v>1</v>
       </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -22655,6 +27129,17 @@
       <c r="P51" t="n">
         <v>1</v>
       </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -22709,6 +27194,17 @@
       <c r="P52" t="n">
         <v>1</v>
       </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -22761,6 +27257,17 @@
       <c r="P53" t="n">
         <v>3</v>
       </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -22813,6 +27320,17 @@
       <c r="P54" t="n">
         <v>1</v>
       </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -22865,6 +27383,17 @@
       <c r="P55" t="n">
         <v>1</v>
       </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -22917,6 +27446,17 @@
       <c r="P56" t="n">
         <v>1</v>
       </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -22969,6 +27509,17 @@
       <c r="P57" t="n">
         <v>3</v>
       </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -23021,6 +27572,17 @@
       <c r="P58" t="n">
         <v>3</v>
       </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -23073,6 +27635,17 @@
       <c r="P59" t="n">
         <v>1</v>
       </c>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -23127,6 +27700,17 @@
       <c r="P60" t="n">
         <v>3</v>
       </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/Course Outcomes.xlsx
+++ b/Course Outcomes.xlsx
@@ -1065,7 +1065,7 @@
         <v>35</v>
       </c>
       <c r="AA6" t="n">
-        <v>82.85714285714286</v>
+        <v>82.86</v>
       </c>
       <c r="AB6" t="n">
         <v>3</v>
@@ -1077,7 +1077,7 @@
         <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>85.71428571428571</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="AF6" t="n">
         <v>3</v>
@@ -1176,7 +1176,7 @@
         <v>35</v>
       </c>
       <c r="AA7" t="n">
-        <v>57.14285714285714</v>
+        <v>57.14</v>
       </c>
       <c r="AB7" t="n">
         <v>2</v>
@@ -1188,7 +1188,7 @@
         <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>71.42857142857143</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AF7" t="n">
         <v>3</v>
@@ -1307,7 +1307,7 @@
         <v>35</v>
       </c>
       <c r="AA8" t="n">
-        <v>25.71428571428571</v>
+        <v>25.71</v>
       </c>
       <c r="AB8" t="n">
         <v>1</v>
@@ -1319,7 +1319,7 @@
         <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>14.28571428571428</v>
+        <v>14.29</v>
       </c>
       <c r="AF8" t="n">
         <v>1</v>
@@ -1418,7 +1418,7 @@
         <v>35</v>
       </c>
       <c r="AA9" t="n">
-        <v>65.71428571428571</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="AB9" t="n">
         <v>3</v>
@@ -1430,7 +1430,7 @@
         <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>85.71428571428571</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="AF9" t="n">
         <v>3</v>
@@ -1443,23 +1443,23 @@
         </is>
       </c>
       <c r="AJ9" t="n">
-        <v>23.63636363636364</v>
+        <v>23.63</v>
       </c>
       <c r="AK9" t="n">
-        <v>14.54545454545454</v>
+        <v>14.54</v>
       </c>
       <c r="AL9" t="n">
-        <v>61.81818181818181</v>
+        <v>61.81</v>
       </c>
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="n">
-        <v>25.45454545454545</v>
+        <v>25.45</v>
       </c>
       <c r="AO9" t="n">
-        <v>21.81818181818182</v>
+        <v>21.81</v>
       </c>
       <c r="AP9" t="n">
-        <v>52.72727272727272</v>
+        <v>52.72</v>
       </c>
       <c r="AQ9" t="inlineStr"/>
     </row>
@@ -1545,7 +1545,7 @@
         <v>35</v>
       </c>
       <c r="AA10" t="n">
-        <v>51.42857142857142</v>
+        <v>51.43</v>
       </c>
       <c r="AB10" t="n">
         <v>2</v>
@@ -1557,7 +1557,7 @@
         <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>42.85714285714285</v>
+        <v>42.86</v>
       </c>
       <c r="AF10" t="n">
         <v>1</v>
@@ -1658,7 +1658,7 @@
         <v>45</v>
       </c>
       <c r="AA11" t="n">
-        <v>37.77777777777778</v>
+        <v>37.78</v>
       </c>
       <c r="AB11" t="n">
         <v>1</v>
@@ -1670,7 +1670,7 @@
         <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>42.85714285714285</v>
+        <v>42.86</v>
       </c>
       <c r="AF11" t="n">
         <v>1</v>
@@ -1769,7 +1769,7 @@
         <v>35</v>
       </c>
       <c r="AA12" t="n">
-        <v>25.71428571428571</v>
+        <v>25.71</v>
       </c>
       <c r="AB12" t="n">
         <v>1</v>
@@ -1781,7 +1781,7 @@
         <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>42.85714285714285</v>
+        <v>42.86</v>
       </c>
       <c r="AF12" t="n">
         <v>1</v>
@@ -1892,7 +1892,7 @@
         <v>7</v>
       </c>
       <c r="AE13" t="n">
-        <v>42.85714285714285</v>
+        <v>42.86</v>
       </c>
       <c r="AF13" t="n">
         <v>1</v>
@@ -1997,7 +1997,7 @@
         <v>35</v>
       </c>
       <c r="AA14" t="n">
-        <v>68.57142857142857</v>
+        <v>68.56999999999999</v>
       </c>
       <c r="AB14" t="n">
         <v>3</v>
@@ -2009,7 +2009,7 @@
         <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>85.71428571428571</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="AF14" t="n">
         <v>3</v>
@@ -2108,7 +2108,7 @@
         <v>35</v>
       </c>
       <c r="AA15" t="n">
-        <v>34.28571428571428</v>
+        <v>34.29</v>
       </c>
       <c r="AB15" t="n">
         <v>1</v>
@@ -2120,7 +2120,7 @@
         <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>71.42857142857143</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AF15" t="n">
         <v>3</v>
@@ -2219,7 +2219,7 @@
         <v>35</v>
       </c>
       <c r="AA16" t="n">
-        <v>94.28571428571428</v>
+        <v>94.29000000000001</v>
       </c>
       <c r="AB16" t="n">
         <v>3</v>
@@ -2231,7 +2231,7 @@
         <v>7</v>
       </c>
       <c r="AE16" t="n">
-        <v>85.71428571428571</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="AF16" t="n">
         <v>3</v>
@@ -2342,7 +2342,7 @@
         <v>7</v>
       </c>
       <c r="AE17" t="n">
-        <v>42.85714285714285</v>
+        <v>42.86</v>
       </c>
       <c r="AF17" t="n">
         <v>1</v>
@@ -2453,7 +2453,7 @@
         <v>7</v>
       </c>
       <c r="AE18" t="n">
-        <v>28.57142857142857</v>
+        <v>28.57</v>
       </c>
       <c r="AF18" t="n">
         <v>1</v>
@@ -2552,7 +2552,7 @@
         <v>35</v>
       </c>
       <c r="AA19" t="n">
-        <v>42.85714285714285</v>
+        <v>42.86</v>
       </c>
       <c r="AB19" t="n">
         <v>1</v>
@@ -2564,7 +2564,7 @@
         <v>7</v>
       </c>
       <c r="AE19" t="n">
-        <v>42.85714285714285</v>
+        <v>42.86</v>
       </c>
       <c r="AF19" t="n">
         <v>1</v>
@@ -2663,7 +2663,7 @@
         <v>35</v>
       </c>
       <c r="AA20" t="n">
-        <v>48.57142857142857</v>
+        <v>48.57</v>
       </c>
       <c r="AB20" t="n">
         <v>1</v>
@@ -2675,7 +2675,7 @@
         <v>7</v>
       </c>
       <c r="AE20" t="n">
-        <v>42.85714285714285</v>
+        <v>42.86</v>
       </c>
       <c r="AF20" t="n">
         <v>1</v>
@@ -2774,7 +2774,7 @@
         <v>35</v>
       </c>
       <c r="AA21" t="n">
-        <v>57.14285714285714</v>
+        <v>57.14</v>
       </c>
       <c r="AB21" t="n">
         <v>2</v>
@@ -2786,7 +2786,7 @@
         <v>7</v>
       </c>
       <c r="AE21" t="n">
-        <v>57.14285714285714</v>
+        <v>57.14</v>
       </c>
       <c r="AF21" t="n">
         <v>2</v>
@@ -2885,7 +2885,7 @@
         <v>35</v>
       </c>
       <c r="AA22" t="n">
-        <v>57.14285714285714</v>
+        <v>57.14</v>
       </c>
       <c r="AB22" t="n">
         <v>2</v>
@@ -2897,7 +2897,7 @@
         <v>7</v>
       </c>
       <c r="AE22" t="n">
-        <v>71.42857142857143</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AF22" t="n">
         <v>3</v>
@@ -3109,7 +3109,7 @@
         <v>35</v>
       </c>
       <c r="AA24" t="n">
-        <v>37.14285714285715</v>
+        <v>37.14</v>
       </c>
       <c r="AB24" t="n">
         <v>1</v>
@@ -3121,7 +3121,7 @@
         <v>7</v>
       </c>
       <c r="AE24" t="n">
-        <v>42.85714285714285</v>
+        <v>42.86</v>
       </c>
       <c r="AF24" t="n">
         <v>1</v>
@@ -3222,7 +3222,7 @@
         <v>45</v>
       </c>
       <c r="AA25" t="n">
-        <v>86.66666666666667</v>
+        <v>86.67</v>
       </c>
       <c r="AB25" t="n">
         <v>3</v>
@@ -3234,7 +3234,7 @@
         <v>7</v>
       </c>
       <c r="AE25" t="n">
-        <v>42.85714285714285</v>
+        <v>42.86</v>
       </c>
       <c r="AF25" t="n">
         <v>1</v>
@@ -3333,7 +3333,7 @@
         <v>35</v>
       </c>
       <c r="AA26" t="n">
-        <v>68.57142857142857</v>
+        <v>68.56999999999999</v>
       </c>
       <c r="AB26" t="n">
         <v>3</v>
@@ -3345,7 +3345,7 @@
         <v>7</v>
       </c>
       <c r="AE26" t="n">
-        <v>71.42857142857143</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AF26" t="n">
         <v>3</v>
@@ -3444,7 +3444,7 @@
         <v>35</v>
       </c>
       <c r="AA27" t="n">
-        <v>5.714285714285714</v>
+        <v>5.71</v>
       </c>
       <c r="AB27" t="n">
         <v>1</v>
@@ -3456,7 +3456,7 @@
         <v>7</v>
       </c>
       <c r="AE27" t="n">
-        <v>14.28571428571428</v>
+        <v>14.29</v>
       </c>
       <c r="AF27" t="n">
         <v>1</v>
@@ -3567,7 +3567,7 @@
         <v>7</v>
       </c>
       <c r="AE28" t="n">
-        <v>28.57142857142857</v>
+        <v>28.57</v>
       </c>
       <c r="AF28" t="n">
         <v>1</v>
@@ -3666,7 +3666,7 @@
         <v>35</v>
       </c>
       <c r="AA29" t="n">
-        <v>45.71428571428572</v>
+        <v>45.71</v>
       </c>
       <c r="AB29" t="n">
         <v>1</v>
@@ -3678,7 +3678,7 @@
         <v>7</v>
       </c>
       <c r="AE29" t="n">
-        <v>57.14285714285714</v>
+        <v>57.14</v>
       </c>
       <c r="AF29" t="n">
         <v>2</v>
@@ -3777,7 +3777,7 @@
         <v>35</v>
       </c>
       <c r="AA30" t="n">
-        <v>82.85714285714286</v>
+        <v>82.86</v>
       </c>
       <c r="AB30" t="n">
         <v>3</v>
@@ -3789,7 +3789,7 @@
         <v>7</v>
       </c>
       <c r="AE30" t="n">
-        <v>85.71428571428571</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="AF30" t="n">
         <v>3</v>
@@ -3888,7 +3888,7 @@
         <v>35</v>
       </c>
       <c r="AA31" t="n">
-        <v>42.85714285714285</v>
+        <v>42.86</v>
       </c>
       <c r="AB31" t="n">
         <v>1</v>
@@ -3900,7 +3900,7 @@
         <v>7</v>
       </c>
       <c r="AE31" t="n">
-        <v>42.85714285714285</v>
+        <v>42.86</v>
       </c>
       <c r="AF31" t="n">
         <v>1</v>
@@ -3999,7 +3999,7 @@
         <v>35</v>
       </c>
       <c r="AA32" t="n">
-        <v>37.14285714285715</v>
+        <v>37.14</v>
       </c>
       <c r="AB32" t="n">
         <v>1</v>
@@ -4011,7 +4011,7 @@
         <v>7</v>
       </c>
       <c r="AE32" t="n">
-        <v>57.14285714285714</v>
+        <v>57.14</v>
       </c>
       <c r="AF32" t="n">
         <v>2</v>
@@ -4110,7 +4110,7 @@
         <v>35</v>
       </c>
       <c r="AA33" t="n">
-        <v>42.85714285714285</v>
+        <v>42.86</v>
       </c>
       <c r="AB33" t="n">
         <v>1</v>
@@ -4122,7 +4122,7 @@
         <v>7</v>
       </c>
       <c r="AE33" t="n">
-        <v>14.28571428571428</v>
+        <v>14.29</v>
       </c>
       <c r="AF33" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         <v>35</v>
       </c>
       <c r="AA34" t="n">
-        <v>68.57142857142857</v>
+        <v>68.56999999999999</v>
       </c>
       <c r="AB34" t="n">
         <v>3</v>
@@ -4233,7 +4233,7 @@
         <v>7</v>
       </c>
       <c r="AE34" t="n">
-        <v>71.42857142857143</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AF34" t="n">
         <v>3</v>
@@ -4332,7 +4332,7 @@
         <v>35</v>
       </c>
       <c r="AA35" t="n">
-        <v>74.28571428571429</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="AB35" t="n">
         <v>3</v>
@@ -4344,7 +4344,7 @@
         <v>7</v>
       </c>
       <c r="AE35" t="n">
-        <v>28.57142857142857</v>
+        <v>28.57</v>
       </c>
       <c r="AF35" t="n">
         <v>1</v>
@@ -4445,7 +4445,7 @@
         <v>45</v>
       </c>
       <c r="AA36" t="n">
-        <v>48.88888888888889</v>
+        <v>48.89</v>
       </c>
       <c r="AB36" t="n">
         <v>1</v>
@@ -4457,7 +4457,7 @@
         <v>7</v>
       </c>
       <c r="AE36" t="n">
-        <v>57.14285714285714</v>
+        <v>57.14</v>
       </c>
       <c r="AF36" t="n">
         <v>2</v>
@@ -4556,7 +4556,7 @@
         <v>35</v>
       </c>
       <c r="AA37" t="n">
-        <v>48.57142857142857</v>
+        <v>48.57</v>
       </c>
       <c r="AB37" t="n">
         <v>1</v>
@@ -4568,7 +4568,7 @@
         <v>7</v>
       </c>
       <c r="AE37" t="n">
-        <v>42.85714285714285</v>
+        <v>42.86</v>
       </c>
       <c r="AF37" t="n">
         <v>1</v>
@@ -4667,7 +4667,7 @@
         <v>35</v>
       </c>
       <c r="AA38" t="n">
-        <v>42.85714285714285</v>
+        <v>42.86</v>
       </c>
       <c r="AB38" t="n">
         <v>1</v>
@@ -4679,7 +4679,7 @@
         <v>7</v>
       </c>
       <c r="AE38" t="n">
-        <v>14.28571428571428</v>
+        <v>14.29</v>
       </c>
       <c r="AF38" t="n">
         <v>1</v>
@@ -4778,7 +4778,7 @@
         <v>35</v>
       </c>
       <c r="AA39" t="n">
-        <v>54.28571428571428</v>
+        <v>54.29</v>
       </c>
       <c r="AB39" t="n">
         <v>2</v>
@@ -4790,7 +4790,7 @@
         <v>7</v>
       </c>
       <c r="AE39" t="n">
-        <v>42.85714285714285</v>
+        <v>42.86</v>
       </c>
       <c r="AF39" t="n">
         <v>1</v>
@@ -4889,7 +4889,7 @@
         <v>35</v>
       </c>
       <c r="AA40" t="n">
-        <v>54.28571428571428</v>
+        <v>54.29</v>
       </c>
       <c r="AB40" t="n">
         <v>2</v>
@@ -4901,7 +4901,7 @@
         <v>7</v>
       </c>
       <c r="AE40" t="n">
-        <v>71.42857142857143</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AF40" t="n">
         <v>3</v>
@@ -5000,7 +5000,7 @@
         <v>35</v>
       </c>
       <c r="AA41" t="n">
-        <v>57.14285714285714</v>
+        <v>57.14</v>
       </c>
       <c r="AB41" t="n">
         <v>2</v>
@@ -5012,7 +5012,7 @@
         <v>7</v>
       </c>
       <c r="AE41" t="n">
-        <v>71.42857142857143</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AF41" t="n">
         <v>3</v>
@@ -5111,7 +5111,7 @@
         <v>35</v>
       </c>
       <c r="AA42" t="n">
-        <v>45.71428571428572</v>
+        <v>45.71</v>
       </c>
       <c r="AB42" t="n">
         <v>1</v>
@@ -5123,7 +5123,7 @@
         <v>7</v>
       </c>
       <c r="AE42" t="n">
-        <v>42.85714285714285</v>
+        <v>42.86</v>
       </c>
       <c r="AF42" t="n">
         <v>1</v>
@@ -5222,7 +5222,7 @@
         <v>35</v>
       </c>
       <c r="AA43" t="n">
-        <v>5.714285714285714</v>
+        <v>5.71</v>
       </c>
       <c r="AB43" t="n">
         <v>1</v>
@@ -5234,7 +5234,7 @@
         <v>7</v>
       </c>
       <c r="AE43" t="n">
-        <v>14.28571428571428</v>
+        <v>14.29</v>
       </c>
       <c r="AF43" t="n">
         <v>1</v>
@@ -5333,7 +5333,7 @@
         <v>35</v>
       </c>
       <c r="AA44" t="n">
-        <v>42.85714285714285</v>
+        <v>42.86</v>
       </c>
       <c r="AB44" t="n">
         <v>1</v>
@@ -5345,7 +5345,7 @@
         <v>7</v>
       </c>
       <c r="AE44" t="n">
-        <v>14.28571428571428</v>
+        <v>14.29</v>
       </c>
       <c r="AF44" t="n">
         <v>1</v>
@@ -5444,7 +5444,7 @@
         <v>35</v>
       </c>
       <c r="AA45" t="n">
-        <v>77.14285714285715</v>
+        <v>77.14</v>
       </c>
       <c r="AB45" t="n">
         <v>3</v>
@@ -5456,7 +5456,7 @@
         <v>7</v>
       </c>
       <c r="AE45" t="n">
-        <v>57.14285714285714</v>
+        <v>57.14</v>
       </c>
       <c r="AF45" t="n">
         <v>2</v>
@@ -5555,7 +5555,7 @@
         <v>35</v>
       </c>
       <c r="AA46" t="n">
-        <v>88.57142857142857</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="AB46" t="n">
         <v>3</v>
@@ -5567,7 +5567,7 @@
         <v>7</v>
       </c>
       <c r="AE46" t="n">
-        <v>71.42857142857143</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AF46" t="n">
         <v>3</v>
@@ -5666,7 +5666,7 @@
         <v>35</v>
       </c>
       <c r="AA47" t="n">
-        <v>34.28571428571428</v>
+        <v>34.29</v>
       </c>
       <c r="AB47" t="n">
         <v>1</v>
@@ -5678,7 +5678,7 @@
         <v>7</v>
       </c>
       <c r="AE47" t="n">
-        <v>42.85714285714285</v>
+        <v>42.86</v>
       </c>
       <c r="AF47" t="n">
         <v>1</v>
@@ -5777,7 +5777,7 @@
         <v>35</v>
       </c>
       <c r="AA48" t="n">
-        <v>22.85714285714286</v>
+        <v>22.86</v>
       </c>
       <c r="AB48" t="n">
         <v>1</v>
@@ -5789,7 +5789,7 @@
         <v>7</v>
       </c>
       <c r="AE48" t="n">
-        <v>42.85714285714285</v>
+        <v>42.86</v>
       </c>
       <c r="AF48" t="n">
         <v>1</v>
@@ -5890,7 +5890,7 @@
         <v>45</v>
       </c>
       <c r="AA49" t="n">
-        <v>15.55555555555556</v>
+        <v>15.56</v>
       </c>
       <c r="AB49" t="n">
         <v>1</v>
@@ -5902,7 +5902,7 @@
         <v>7</v>
       </c>
       <c r="AE49" t="n">
-        <v>57.14285714285714</v>
+        <v>57.14</v>
       </c>
       <c r="AF49" t="n">
         <v>2</v>
@@ -6001,7 +6001,7 @@
         <v>35</v>
       </c>
       <c r="AA50" t="n">
-        <v>37.14285714285715</v>
+        <v>37.14</v>
       </c>
       <c r="AB50" t="n">
         <v>1</v>
@@ -6013,7 +6013,7 @@
         <v>7</v>
       </c>
       <c r="AE50" t="n">
-        <v>57.14285714285714</v>
+        <v>57.14</v>
       </c>
       <c r="AF50" t="n">
         <v>2</v>
@@ -6112,7 +6112,7 @@
         <v>35</v>
       </c>
       <c r="AA51" t="n">
-        <v>48.57142857142857</v>
+        <v>48.57</v>
       </c>
       <c r="AB51" t="n">
         <v>1</v>
@@ -6223,7 +6223,7 @@
         <v>35</v>
       </c>
       <c r="AA52" t="n">
-        <v>34.28571428571428</v>
+        <v>34.29</v>
       </c>
       <c r="AB52" t="n">
         <v>1</v>
@@ -6235,7 +6235,7 @@
         <v>7</v>
       </c>
       <c r="AE52" t="n">
-        <v>57.14285714285714</v>
+        <v>57.14</v>
       </c>
       <c r="AF52" t="n">
         <v>2</v>
@@ -6346,7 +6346,7 @@
         <v>7</v>
       </c>
       <c r="AE53" t="n">
-        <v>28.57142857142857</v>
+        <v>28.57</v>
       </c>
       <c r="AF53" t="n">
         <v>1</v>
@@ -6445,7 +6445,7 @@
         <v>35</v>
       </c>
       <c r="AA54" t="n">
-        <v>25.71428571428571</v>
+        <v>25.71</v>
       </c>
       <c r="AB54" t="n">
         <v>1</v>
@@ -6457,7 +6457,7 @@
         <v>7</v>
       </c>
       <c r="AE54" t="n">
-        <v>57.14285714285714</v>
+        <v>57.14</v>
       </c>
       <c r="AF54" t="n">
         <v>2</v>
@@ -6568,7 +6568,7 @@
         <v>7</v>
       </c>
       <c r="AE55" t="n">
-        <v>42.85714285714285</v>
+        <v>42.86</v>
       </c>
       <c r="AF55" t="n">
         <v>1</v>
@@ -6667,7 +6667,7 @@
         <v>35</v>
       </c>
       <c r="AA56" t="n">
-        <v>28.57142857142857</v>
+        <v>28.57</v>
       </c>
       <c r="AB56" t="n">
         <v>1</v>
@@ -6679,7 +6679,7 @@
         <v>7</v>
       </c>
       <c r="AE56" t="n">
-        <v>42.85714285714285</v>
+        <v>42.86</v>
       </c>
       <c r="AF56" t="n">
         <v>1</v>
@@ -6778,7 +6778,7 @@
         <v>35</v>
       </c>
       <c r="AA57" t="n">
-        <v>22.85714285714286</v>
+        <v>22.86</v>
       </c>
       <c r="AB57" t="n">
         <v>1</v>
@@ -6790,7 +6790,7 @@
         <v>7</v>
       </c>
       <c r="AE57" t="n">
-        <v>71.42857142857143</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AF57" t="n">
         <v>3</v>
@@ -6889,7 +6889,7 @@
         <v>35</v>
       </c>
       <c r="AA58" t="n">
-        <v>62.85714285714285</v>
+        <v>62.86</v>
       </c>
       <c r="AB58" t="n">
         <v>3</v>
@@ -6901,7 +6901,7 @@
         <v>7</v>
       </c>
       <c r="AE58" t="n">
-        <v>57.14285714285714</v>
+        <v>57.14</v>
       </c>
       <c r="AF58" t="n">
         <v>2</v>
@@ -7000,7 +7000,7 @@
         <v>35</v>
       </c>
       <c r="AA59" t="n">
-        <v>14.28571428571428</v>
+        <v>14.29</v>
       </c>
       <c r="AB59" t="n">
         <v>1</v>
@@ -7012,7 +7012,7 @@
         <v>7</v>
       </c>
       <c r="AE59" t="n">
-        <v>57.14285714285714</v>
+        <v>57.14</v>
       </c>
       <c r="AF59" t="n">
         <v>2</v>
@@ -7113,7 +7113,7 @@
         <v>45</v>
       </c>
       <c r="AA60" t="n">
-        <v>57.77777777777777</v>
+        <v>57.78</v>
       </c>
       <c r="AB60" t="n">
         <v>2</v>
@@ -7125,7 +7125,7 @@
         <v>7</v>
       </c>
       <c r="AE60" t="n">
-        <v>57.14285714285714</v>
+        <v>57.14</v>
       </c>
       <c r="AF60" t="n">
         <v>2</v>
@@ -7617,7 +7617,7 @@
         <v>42</v>
       </c>
       <c r="O6" t="n">
-        <v>69.04761904761905</v>
+        <v>69.05</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -7692,7 +7692,7 @@
         <v>42</v>
       </c>
       <c r="O7" t="n">
-        <v>57.14285714285714</v>
+        <v>57.14</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
@@ -7787,7 +7787,7 @@
         <v>42</v>
       </c>
       <c r="O8" t="n">
-        <v>38.09523809523809</v>
+        <v>38.1</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -7885,13 +7885,13 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>47.27272727272727</v>
+        <v>47.27</v>
       </c>
       <c r="Y9" t="n">
-        <v>25.45454545454545</v>
+        <v>25.45</v>
       </c>
       <c r="Z9" t="n">
-        <v>27.27272727272727</v>
+        <v>27.27</v>
       </c>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="n">
@@ -7951,7 +7951,7 @@
         <v>32</v>
       </c>
       <c r="O10" t="n">
-        <v>90.625</v>
+        <v>90.62</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -8097,7 +8097,7 @@
         <v>42</v>
       </c>
       <c r="O12" t="n">
-        <v>54.76190476190477</v>
+        <v>54.76</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -8172,7 +8172,7 @@
         <v>42</v>
       </c>
       <c r="O13" t="n">
-        <v>64.28571428571429</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -8326,7 +8326,7 @@
         <v>42</v>
       </c>
       <c r="O15" t="n">
-        <v>54.76190476190477</v>
+        <v>54.76</v>
       </c>
       <c r="P15" t="n">
         <v>2</v>
@@ -8401,7 +8401,7 @@
         <v>42</v>
       </c>
       <c r="O16" t="n">
-        <v>88.09523809523809</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -8476,7 +8476,7 @@
         <v>42</v>
       </c>
       <c r="O17" t="n">
-        <v>71.42857142857143</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -8551,7 +8551,7 @@
         <v>42</v>
       </c>
       <c r="O18" t="n">
-        <v>45.23809523809524</v>
+        <v>45.24</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -8701,7 +8701,7 @@
         <v>42</v>
       </c>
       <c r="O20" t="n">
-        <v>88.09523809523809</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -8776,7 +8776,7 @@
         <v>42</v>
       </c>
       <c r="O21" t="n">
-        <v>66.66666666666666</v>
+        <v>66.67</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -8851,7 +8851,7 @@
         <v>42</v>
       </c>
       <c r="O22" t="n">
-        <v>88.09523809523809</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -8926,7 +8926,7 @@
         <v>42</v>
       </c>
       <c r="O23" t="n">
-        <v>52.38095238095239</v>
+        <v>52.38</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -9001,7 +9001,7 @@
         <v>42</v>
       </c>
       <c r="O24" t="n">
-        <v>80.95238095238095</v>
+        <v>80.95</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -9074,7 +9074,7 @@
         <v>32</v>
       </c>
       <c r="O25" t="n">
-        <v>96.875</v>
+        <v>96.88</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -9149,7 +9149,7 @@
         <v>42</v>
       </c>
       <c r="O26" t="n">
-        <v>71.42857142857143</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -9299,7 +9299,7 @@
         <v>42</v>
       </c>
       <c r="O28" t="n">
-        <v>11.9047619047619</v>
+        <v>11.9</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -9374,7 +9374,7 @@
         <v>42</v>
       </c>
       <c r="O29" t="n">
-        <v>28.57142857142857</v>
+        <v>28.57</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -9449,7 +9449,7 @@
         <v>42</v>
       </c>
       <c r="O30" t="n">
-        <v>66.66666666666666</v>
+        <v>66.67</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -9524,7 +9524,7 @@
         <v>42</v>
       </c>
       <c r="O31" t="n">
-        <v>61.90476190476191</v>
+        <v>61.9</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -9599,7 +9599,7 @@
         <v>42</v>
       </c>
       <c r="O32" t="n">
-        <v>59.52380952380953</v>
+        <v>59.52</v>
       </c>
       <c r="P32" t="n">
         <v>2</v>
@@ -9674,7 +9674,7 @@
         <v>42</v>
       </c>
       <c r="O33" t="n">
-        <v>54.76190476190477</v>
+        <v>54.76</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
@@ -9749,7 +9749,7 @@
         <v>42</v>
       </c>
       <c r="O34" t="n">
-        <v>88.09523809523809</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -9824,7 +9824,7 @@
         <v>42</v>
       </c>
       <c r="O35" t="n">
-        <v>52.38095238095239</v>
+        <v>52.38</v>
       </c>
       <c r="P35" t="n">
         <v>2</v>
@@ -9899,7 +9899,7 @@
         <v>42</v>
       </c>
       <c r="O36" t="n">
-        <v>85.71428571428571</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -9974,7 +9974,7 @@
         <v>42</v>
       </c>
       <c r="O37" t="n">
-        <v>54.76190476190477</v>
+        <v>54.76</v>
       </c>
       <c r="P37" t="n">
         <v>2</v>
@@ -10049,7 +10049,7 @@
         <v>42</v>
       </c>
       <c r="O38" t="n">
-        <v>57.14285714285714</v>
+        <v>57.14</v>
       </c>
       <c r="P38" t="n">
         <v>2</v>
@@ -10124,7 +10124,7 @@
         <v>42</v>
       </c>
       <c r="O39" t="n">
-        <v>85.71428571428571</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -10199,7 +10199,7 @@
         <v>42</v>
       </c>
       <c r="O40" t="n">
-        <v>52.38095238095239</v>
+        <v>52.38</v>
       </c>
       <c r="P40" t="n">
         <v>2</v>
@@ -10274,7 +10274,7 @@
         <v>42</v>
       </c>
       <c r="O41" t="n">
-        <v>73.80952380952381</v>
+        <v>73.81</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -10349,7 +10349,7 @@
         <v>42</v>
       </c>
       <c r="O42" t="n">
-        <v>57.14285714285714</v>
+        <v>57.14</v>
       </c>
       <c r="P42" t="n">
         <v>2</v>
@@ -10424,7 +10424,7 @@
         <v>42</v>
       </c>
       <c r="O43" t="n">
-        <v>2.380952380952381</v>
+        <v>2.38</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -10499,7 +10499,7 @@
         <v>42</v>
       </c>
       <c r="O44" t="n">
-        <v>73.80952380952381</v>
+        <v>73.81</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -10574,7 +10574,7 @@
         <v>42</v>
       </c>
       <c r="O45" t="n">
-        <v>88.09523809523809</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -10724,7 +10724,7 @@
         <v>42</v>
       </c>
       <c r="O47" t="n">
-        <v>83.33333333333334</v>
+        <v>83.33</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -10799,7 +10799,7 @@
         <v>42</v>
       </c>
       <c r="O48" t="n">
-        <v>40.47619047619047</v>
+        <v>40.48</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
@@ -10874,7 +10874,7 @@
         <v>42</v>
       </c>
       <c r="O49" t="n">
-        <v>73.80952380952381</v>
+        <v>73.81</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -10949,7 +10949,7 @@
         <v>42</v>
       </c>
       <c r="O50" t="n">
-        <v>40.47619047619047</v>
+        <v>40.48</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -11024,7 +11024,7 @@
         <v>42</v>
       </c>
       <c r="O51" t="n">
-        <v>61.90476190476191</v>
+        <v>61.9</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -11099,7 +11099,7 @@
         <v>42</v>
       </c>
       <c r="O52" t="n">
-        <v>38.09523809523809</v>
+        <v>38.1</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
@@ -11174,7 +11174,7 @@
         <v>42</v>
       </c>
       <c r="O53" t="n">
-        <v>30.95238095238095</v>
+        <v>30.95</v>
       </c>
       <c r="P53" t="n">
         <v>1</v>
@@ -11249,7 +11249,7 @@
         <v>42</v>
       </c>
       <c r="O54" t="n">
-        <v>11.9047619047619</v>
+        <v>11.9</v>
       </c>
       <c r="P54" t="n">
         <v>1</v>
@@ -11324,7 +11324,7 @@
         <v>42</v>
       </c>
       <c r="O55" t="n">
-        <v>14.28571428571428</v>
+        <v>14.29</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -11399,7 +11399,7 @@
         <v>42</v>
       </c>
       <c r="O56" t="n">
-        <v>30.95238095238095</v>
+        <v>30.95</v>
       </c>
       <c r="P56" t="n">
         <v>1</v>
@@ -11549,7 +11549,7 @@
         <v>42</v>
       </c>
       <c r="O58" t="n">
-        <v>88.09523809523809</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -11624,7 +11624,7 @@
         <v>42</v>
       </c>
       <c r="O59" t="n">
-        <v>23.80952380952381</v>
+        <v>23.81</v>
       </c>
       <c r="P59" t="n">
         <v>1</v>
@@ -11699,7 +11699,7 @@
         <v>42</v>
       </c>
       <c r="O60" t="n">
-        <v>95.23809523809523</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -12139,7 +12139,7 @@
         <v>18</v>
       </c>
       <c r="L6" t="n">
-        <v>88.88888888888889</v>
+        <v>88.89</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
@@ -12376,13 +12376,13 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>45.45454545454545</v>
+        <v>45.45</v>
       </c>
       <c r="V9" t="n">
-        <v>10.90909090909091</v>
+        <v>10.9</v>
       </c>
       <c r="W9" t="n">
-        <v>43.63636363636363</v>
+        <v>43.63</v>
       </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
@@ -12499,7 +12499,7 @@
         <v>28</v>
       </c>
       <c r="L11" t="n">
-        <v>35.71428571428572</v>
+        <v>35.71</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
@@ -12563,7 +12563,7 @@
         <v>18</v>
       </c>
       <c r="L12" t="n">
-        <v>44.44444444444444</v>
+        <v>44.44</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
@@ -12627,7 +12627,7 @@
         <v>18</v>
       </c>
       <c r="L13" t="n">
-        <v>94.44444444444444</v>
+        <v>94.44</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
@@ -12699,7 +12699,7 @@
         <v>28</v>
       </c>
       <c r="L14" t="n">
-        <v>89.28571428571429</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
@@ -12763,7 +12763,7 @@
         <v>18</v>
       </c>
       <c r="L15" t="n">
-        <v>11.11111111111111</v>
+        <v>11.11</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
@@ -12827,7 +12827,7 @@
         <v>18</v>
       </c>
       <c r="L16" t="n">
-        <v>83.33333333333334</v>
+        <v>83.33</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
@@ -12893,7 +12893,7 @@
         <v>28</v>
       </c>
       <c r="L17" t="n">
-        <v>71.42857142857143</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
@@ -13025,7 +13025,7 @@
         <v>28</v>
       </c>
       <c r="L19" t="n">
-        <v>89.28571428571429</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
@@ -13089,7 +13089,7 @@
         <v>18</v>
       </c>
       <c r="L20" t="n">
-        <v>27.77777777777778</v>
+        <v>27.78</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
@@ -13219,7 +13219,7 @@
         <v>18</v>
       </c>
       <c r="L22" t="n">
-        <v>77.77777777777779</v>
+        <v>77.78</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
@@ -13283,7 +13283,7 @@
         <v>18</v>
       </c>
       <c r="L23" t="n">
-        <v>88.88888888888889</v>
+        <v>88.89</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
@@ -13347,7 +13347,7 @@
         <v>18</v>
       </c>
       <c r="L24" t="n">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
@@ -13411,7 +13411,7 @@
         <v>18</v>
       </c>
       <c r="L25" t="n">
-        <v>94.44444444444444</v>
+        <v>94.44</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
@@ -13477,7 +13477,7 @@
         <v>28</v>
       </c>
       <c r="L26" t="n">
-        <v>78.57142857142857</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
@@ -13543,7 +13543,7 @@
         <v>28</v>
       </c>
       <c r="L27" t="n">
-        <v>3.571428571428571</v>
+        <v>3.57</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
@@ -13607,7 +13607,7 @@
         <v>18</v>
       </c>
       <c r="L28" t="n">
-        <v>44.44444444444444</v>
+        <v>44.44</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
@@ -13673,7 +13673,7 @@
         <v>28</v>
       </c>
       <c r="L29" t="n">
-        <v>67.85714285714286</v>
+        <v>67.86</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
@@ -13805,7 +13805,7 @@
         <v>28</v>
       </c>
       <c r="L31" t="n">
-        <v>42.85714285714285</v>
+        <v>42.86</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
@@ -13933,7 +13933,7 @@
         <v>18</v>
       </c>
       <c r="L33" t="n">
-        <v>38.88888888888889</v>
+        <v>38.89</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
@@ -13997,7 +13997,7 @@
         <v>18</v>
       </c>
       <c r="L34" t="n">
-        <v>83.33333333333334</v>
+        <v>83.33</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
@@ -14063,7 +14063,7 @@
         <v>28</v>
       </c>
       <c r="L35" t="n">
-        <v>60.71428571428571</v>
+        <v>60.71</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
@@ -14127,7 +14127,7 @@
         <v>18</v>
       </c>
       <c r="L36" t="n">
-        <v>77.77777777777779</v>
+        <v>77.78</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
@@ -14191,7 +14191,7 @@
         <v>18</v>
       </c>
       <c r="L37" t="n">
-        <v>66.66666666666666</v>
+        <v>66.67</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
@@ -14257,7 +14257,7 @@
         <v>28</v>
       </c>
       <c r="L38" t="n">
-        <v>46.42857142857143</v>
+        <v>46.43</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
@@ -14321,7 +14321,7 @@
         <v>18</v>
       </c>
       <c r="L39" t="n">
-        <v>88.88888888888889</v>
+        <v>88.89</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
@@ -14387,7 +14387,7 @@
         <v>28</v>
       </c>
       <c r="L40" t="n">
-        <v>53.57142857142857</v>
+        <v>53.57</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
@@ -14451,7 +14451,7 @@
         <v>18</v>
       </c>
       <c r="L41" t="n">
-        <v>72.22222222222221</v>
+        <v>72.22</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
@@ -14515,7 +14515,7 @@
         <v>18</v>
       </c>
       <c r="L42" t="n">
-        <v>77.77777777777779</v>
+        <v>77.78</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
@@ -14773,7 +14773,7 @@
         <v>28</v>
       </c>
       <c r="L46" t="n">
-        <v>64.28571428571429</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
@@ -14837,7 +14837,7 @@
         <v>18</v>
       </c>
       <c r="L47" t="n">
-        <v>94.44444444444444</v>
+        <v>94.44</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
@@ -14903,7 +14903,7 @@
         <v>28</v>
       </c>
       <c r="L48" t="n">
-        <v>39.28571428571428</v>
+        <v>39.29</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
@@ -14967,7 +14967,7 @@
         <v>18</v>
       </c>
       <c r="L49" t="n">
-        <v>5.555555555555555</v>
+        <v>5.56</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
@@ -15031,7 +15031,7 @@
         <v>18</v>
       </c>
       <c r="L50" t="n">
-        <v>38.88888888888889</v>
+        <v>38.89</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
@@ -15095,7 +15095,7 @@
         <v>18</v>
       </c>
       <c r="L51" t="n">
-        <v>5.555555555555555</v>
+        <v>5.56</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
@@ -15159,7 +15159,7 @@
         <v>18</v>
       </c>
       <c r="L52" t="n">
-        <v>11.11111111111111</v>
+        <v>11.11</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
@@ -15225,7 +15225,7 @@
         <v>28</v>
       </c>
       <c r="L53" t="n">
-        <v>46.42857142857143</v>
+        <v>46.43</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
@@ -15355,7 +15355,7 @@
         <v>18</v>
       </c>
       <c r="L55" t="n">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
@@ -15421,7 +15421,7 @@
         <v>28</v>
       </c>
       <c r="L56" t="n">
-        <v>21.42857142857143</v>
+        <v>21.43</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
@@ -15485,7 +15485,7 @@
         <v>18</v>
       </c>
       <c r="L57" t="n">
-        <v>5.555555555555555</v>
+        <v>5.56</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
@@ -15677,7 +15677,7 @@
         <v>18</v>
       </c>
       <c r="L60" t="n">
-        <v>88.88888888888889</v>
+        <v>88.89</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
@@ -16109,7 +16109,7 @@
         <v>12</v>
       </c>
       <c r="O6" t="n">
-        <v>83.33333333333334</v>
+        <v>83.33</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -16172,7 +16172,7 @@
         <v>12</v>
       </c>
       <c r="O7" t="n">
-        <v>58.33333333333334</v>
+        <v>58.33</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
@@ -16243,7 +16243,7 @@
         <v>6</v>
       </c>
       <c r="K8" t="n">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
@@ -16306,7 +16306,7 @@
         <v>6</v>
       </c>
       <c r="K9" t="n">
-        <v>83.33333333333334</v>
+        <v>83.33</v>
       </c>
       <c r="L9" t="n">
         <v>3</v>
@@ -16331,23 +16331,23 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>47.27272727272727</v>
+        <v>47.27</v>
       </c>
       <c r="U9" t="n">
-        <v>3.636363636363636</v>
+        <v>3.63</v>
       </c>
       <c r="V9" t="n">
-        <v>49.09090909090909</v>
+        <v>49.09</v>
       </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="n">
-        <v>47.27272727272727</v>
+        <v>47.27</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.36363636363636</v>
+        <v>16.36</v>
       </c>
       <c r="Z9" t="n">
-        <v>36.36363636363637</v>
+        <v>36.36</v>
       </c>
       <c r="AA9" t="inlineStr"/>
     </row>
@@ -16460,7 +16460,7 @@
         <v>12</v>
       </c>
       <c r="O11" t="n">
-        <v>66.66666666666666</v>
+        <v>66.67</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -16511,7 +16511,7 @@
         <v>6</v>
       </c>
       <c r="K12" t="n">
-        <v>66.66666666666666</v>
+        <v>66.67</v>
       </c>
       <c r="L12" t="n">
         <v>3</v>
@@ -16523,7 +16523,7 @@
         <v>12</v>
       </c>
       <c r="O12" t="n">
-        <v>83.33333333333334</v>
+        <v>83.33</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -16574,7 +16574,7 @@
         <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>66.66666666666666</v>
+        <v>66.67</v>
       </c>
       <c r="L13" t="n">
         <v>3</v>
@@ -16586,7 +16586,7 @@
         <v>12</v>
       </c>
       <c r="O13" t="n">
-        <v>66.66666666666666</v>
+        <v>66.67</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -16643,7 +16643,7 @@
         <v>6</v>
       </c>
       <c r="K14" t="n">
-        <v>66.66666666666666</v>
+        <v>66.67</v>
       </c>
       <c r="L14" t="n">
         <v>3</v>
@@ -16706,7 +16706,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
@@ -16718,7 +16718,7 @@
         <v>12</v>
       </c>
       <c r="O15" t="n">
-        <v>8.333333333333332</v>
+        <v>8.33</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -16907,7 +16907,7 @@
         <v>12</v>
       </c>
       <c r="O18" t="n">
-        <v>58.33333333333334</v>
+        <v>58.33</v>
       </c>
       <c r="P18" t="n">
         <v>2</v>
@@ -16958,7 +16958,7 @@
         <v>6</v>
       </c>
       <c r="K19" t="n">
-        <v>66.66666666666666</v>
+        <v>66.67</v>
       </c>
       <c r="L19" t="n">
         <v>3</v>
@@ -17021,7 +17021,7 @@
         <v>6</v>
       </c>
       <c r="K20" t="n">
-        <v>83.33333333333334</v>
+        <v>83.33</v>
       </c>
       <c r="L20" t="n">
         <v>3</v>
@@ -17159,7 +17159,7 @@
         <v>12</v>
       </c>
       <c r="O22" t="n">
-        <v>58.33333333333334</v>
+        <v>58.33</v>
       </c>
       <c r="P22" t="n">
         <v>2</v>
@@ -17401,7 +17401,7 @@
         <v>6</v>
       </c>
       <c r="K26" t="n">
-        <v>16.66666666666666</v>
+        <v>16.67</v>
       </c>
       <c r="L26" t="n">
         <v>1</v>
@@ -17413,7 +17413,7 @@
         <v>12</v>
       </c>
       <c r="O26" t="n">
-        <v>83.33333333333334</v>
+        <v>83.33</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -17590,7 +17590,7 @@
         <v>6</v>
       </c>
       <c r="K29" t="n">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
@@ -17602,7 +17602,7 @@
         <v>12</v>
       </c>
       <c r="O29" t="n">
-        <v>41.66666666666667</v>
+        <v>41.67</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -17665,7 +17665,7 @@
         <v>12</v>
       </c>
       <c r="O30" t="n">
-        <v>83.33333333333334</v>
+        <v>83.33</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -17728,7 +17728,7 @@
         <v>12</v>
       </c>
       <c r="O31" t="n">
-        <v>83.33333333333334</v>
+        <v>83.33</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -17779,7 +17779,7 @@
         <v>6</v>
       </c>
       <c r="K32" t="n">
-        <v>66.66666666666666</v>
+        <v>66.67</v>
       </c>
       <c r="L32" t="n">
         <v>3</v>
@@ -17791,7 +17791,7 @@
         <v>12</v>
       </c>
       <c r="O32" t="n">
-        <v>41.66666666666667</v>
+        <v>41.67</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -17842,7 +17842,7 @@
         <v>6</v>
       </c>
       <c r="K33" t="n">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
@@ -17905,7 +17905,7 @@
         <v>6</v>
       </c>
       <c r="K34" t="n">
-        <v>83.33333333333334</v>
+        <v>83.33</v>
       </c>
       <c r="L34" t="n">
         <v>3</v>
@@ -17917,7 +17917,7 @@
         <v>12</v>
       </c>
       <c r="O34" t="n">
-        <v>91.66666666666666</v>
+        <v>91.67</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -17968,7 +17968,7 @@
         <v>6</v>
       </c>
       <c r="K35" t="n">
-        <v>16.66666666666666</v>
+        <v>16.67</v>
       </c>
       <c r="L35" t="n">
         <v>1</v>
@@ -18033,7 +18033,7 @@
         <v>6</v>
       </c>
       <c r="K36" t="n">
-        <v>66.66666666666666</v>
+        <v>66.67</v>
       </c>
       <c r="L36" t="n">
         <v>3</v>
@@ -18108,7 +18108,7 @@
         <v>12</v>
       </c>
       <c r="O37" t="n">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -18159,7 +18159,7 @@
         <v>6</v>
       </c>
       <c r="K38" t="n">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
       <c r="L38" t="n">
         <v>1</v>
@@ -18224,7 +18224,7 @@
         <v>6</v>
       </c>
       <c r="K39" t="n">
-        <v>66.66666666666666</v>
+        <v>66.67</v>
       </c>
       <c r="L39" t="n">
         <v>3</v>
@@ -18236,7 +18236,7 @@
         <v>22</v>
       </c>
       <c r="O39" t="n">
-        <v>54.54545454545454</v>
+        <v>54.55</v>
       </c>
       <c r="P39" t="n">
         <v>2</v>
@@ -18287,7 +18287,7 @@
         <v>6</v>
       </c>
       <c r="K40" t="n">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
       <c r="L40" t="n">
         <v>1</v>
@@ -18299,7 +18299,7 @@
         <v>12</v>
       </c>
       <c r="O40" t="n">
-        <v>83.33333333333334</v>
+        <v>83.33</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -18415,7 +18415,7 @@
         <v>6</v>
       </c>
       <c r="K42" t="n">
-        <v>83.33333333333334</v>
+        <v>83.33</v>
       </c>
       <c r="L42" t="n">
         <v>3</v>
@@ -18427,7 +18427,7 @@
         <v>22</v>
       </c>
       <c r="O42" t="n">
-        <v>63.63636363636363</v>
+        <v>63.64</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -18478,7 +18478,7 @@
         <v>6</v>
       </c>
       <c r="K43" t="n">
-        <v>66.66666666666666</v>
+        <v>66.67</v>
       </c>
       <c r="L43" t="n">
         <v>3</v>
@@ -18490,7 +18490,7 @@
         <v>12</v>
       </c>
       <c r="O43" t="n">
-        <v>16.66666666666666</v>
+        <v>16.67</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -18541,7 +18541,7 @@
         <v>6</v>
       </c>
       <c r="K44" t="n">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
       <c r="L44" t="n">
         <v>1</v>
@@ -18616,7 +18616,7 @@
         <v>12</v>
       </c>
       <c r="O45" t="n">
-        <v>58.33333333333334</v>
+        <v>58.33</v>
       </c>
       <c r="P45" t="n">
         <v>2</v>
@@ -18667,7 +18667,7 @@
         <v>6</v>
       </c>
       <c r="K46" t="n">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
       <c r="L46" t="n">
         <v>1</v>
@@ -18679,7 +18679,7 @@
         <v>12</v>
       </c>
       <c r="O46" t="n">
-        <v>83.33333333333334</v>
+        <v>83.33</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -18742,7 +18742,7 @@
         <v>12</v>
       </c>
       <c r="O47" t="n">
-        <v>58.33333333333334</v>
+        <v>58.33</v>
       </c>
       <c r="P47" t="n">
         <v>2</v>
@@ -18870,7 +18870,7 @@
         <v>22</v>
       </c>
       <c r="O49" t="n">
-        <v>22.72727272727273</v>
+        <v>22.73</v>
       </c>
       <c r="P49" t="n">
         <v>1</v>
@@ -18933,7 +18933,7 @@
         <v>12</v>
       </c>
       <c r="O50" t="n">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -18998,7 +18998,7 @@
         <v>22</v>
       </c>
       <c r="O51" t="n">
-        <v>36.36363636363637</v>
+        <v>36.36</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -19049,7 +19049,7 @@
         <v>6</v>
       </c>
       <c r="K52" t="n">
-        <v>66.66666666666666</v>
+        <v>66.67</v>
       </c>
       <c r="L52" t="n">
         <v>3</v>
@@ -19061,7 +19061,7 @@
         <v>12</v>
       </c>
       <c r="O52" t="n">
-        <v>41.66666666666667</v>
+        <v>41.67</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
@@ -19114,7 +19114,7 @@
         <v>6</v>
       </c>
       <c r="K53" t="n">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
       <c r="L53" t="n">
         <v>1</v>
@@ -19126,7 +19126,7 @@
         <v>22</v>
       </c>
       <c r="O53" t="n">
-        <v>31.81818181818182</v>
+        <v>31.82</v>
       </c>
       <c r="P53" t="n">
         <v>1</v>
@@ -19179,7 +19179,7 @@
         <v>6</v>
       </c>
       <c r="K54" t="n">
-        <v>16.66666666666666</v>
+        <v>16.67</v>
       </c>
       <c r="L54" t="n">
         <v>1</v>
@@ -19191,7 +19191,7 @@
         <v>22</v>
       </c>
       <c r="O54" t="n">
-        <v>9.090909090909092</v>
+        <v>9.09</v>
       </c>
       <c r="P54" t="n">
         <v>1</v>
@@ -19256,7 +19256,7 @@
         <v>22</v>
       </c>
       <c r="O55" t="n">
-        <v>13.63636363636363</v>
+        <v>13.64</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -19309,7 +19309,7 @@
         <v>6</v>
       </c>
       <c r="K56" t="n">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
       <c r="L56" t="n">
         <v>1</v>
@@ -19321,7 +19321,7 @@
         <v>22</v>
       </c>
       <c r="O56" t="n">
-        <v>22.72727272727273</v>
+        <v>22.73</v>
       </c>
       <c r="P56" t="n">
         <v>1</v>
@@ -19374,7 +19374,7 @@
         <v>6</v>
       </c>
       <c r="K57" t="n">
-        <v>66.66666666666666</v>
+        <v>66.67</v>
       </c>
       <c r="L57" t="n">
         <v>3</v>
@@ -19386,7 +19386,7 @@
         <v>22</v>
       </c>
       <c r="O57" t="n">
-        <v>4.545454545454546</v>
+        <v>4.55</v>
       </c>
       <c r="P57" t="n">
         <v>1</v>
@@ -19451,7 +19451,7 @@
         <v>22</v>
       </c>
       <c r="O58" t="n">
-        <v>31.81818181818182</v>
+        <v>31.82</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -19569,7 +19569,7 @@
         <v>6</v>
       </c>
       <c r="K60" t="n">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
       <c r="L60" t="n">
         <v>1</v>
@@ -19581,7 +19581,7 @@
         <v>22</v>
       </c>
       <c r="O60" t="n">
-        <v>68.18181818181817</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -20262,23 +20262,23 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>29.09090909090909</v>
+        <v>29.09</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>70.90909090909091</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
-        <v>58.18181818181818</v>
+        <v>58.18</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.454545454545454</v>
+        <v>5.45</v>
       </c>
       <c r="AA9" t="n">
-        <v>36.36363636363637</v>
+        <v>36.36</v>
       </c>
       <c r="AB9" t="inlineStr"/>
     </row>
@@ -24313,7 +24313,7 @@
         <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>6.666666666666667</v>
+        <v>6.67</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -24378,7 +24378,7 @@
         <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>46.66666666666666</v>
+        <v>46.67</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -24391,23 +24391,23 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>58.18181818181818</v>
+        <v>58.18</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>41.81818181818181</v>
+        <v>41.81</v>
       </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="n">
-        <v>23.63636363636364</v>
+        <v>23.63</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.636363636363636</v>
+        <v>3.63</v>
       </c>
       <c r="Z9" t="n">
-        <v>72.72727272727273</v>
+        <v>72.72</v>
       </c>
       <c r="AA9" t="inlineStr"/>
     </row>
@@ -24459,7 +24459,7 @@
         <v>15</v>
       </c>
       <c r="O10" t="n">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -24524,7 +24524,7 @@
         <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>26.66666666666667</v>
+        <v>26.67</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -24589,7 +24589,7 @@
         <v>15</v>
       </c>
       <c r="O12" t="n">
-        <v>6.666666666666667</v>
+        <v>6.67</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -24654,7 +24654,7 @@
         <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>46.66666666666666</v>
+        <v>46.67</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -24725,7 +24725,7 @@
         <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>53.33333333333334</v>
+        <v>53.33</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -24855,7 +24855,7 @@
         <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>93.33333333333333</v>
+        <v>93.33</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -24985,7 +24985,7 @@
         <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>13.33333333333333</v>
+        <v>13.33</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -25180,7 +25180,7 @@
         <v>15</v>
       </c>
       <c r="O21" t="n">
-        <v>46.66666666666666</v>
+        <v>46.67</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -25570,7 +25570,7 @@
         <v>15</v>
       </c>
       <c r="O27" t="n">
-        <v>6.666666666666667</v>
+        <v>6.67</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -25700,7 +25700,7 @@
         <v>15</v>
       </c>
       <c r="O29" t="n">
-        <v>53.33333333333334</v>
+        <v>53.33</v>
       </c>
       <c r="P29" t="n">
         <v>2</v>
@@ -25830,7 +25830,7 @@
         <v>15</v>
       </c>
       <c r="O31" t="n">
-        <v>13.33333333333333</v>
+        <v>13.33</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -25895,7 +25895,7 @@
         <v>15</v>
       </c>
       <c r="O32" t="n">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -25960,7 +25960,7 @@
         <v>15</v>
       </c>
       <c r="O33" t="n">
-        <v>13.33333333333333</v>
+        <v>13.33</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -26090,7 +26090,7 @@
         <v>15</v>
       </c>
       <c r="O35" t="n">
-        <v>73.33333333333333</v>
+        <v>73.33</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -26220,7 +26220,7 @@
         <v>15</v>
       </c>
       <c r="O37" t="n">
-        <v>26.66666666666667</v>
+        <v>26.67</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -26285,7 +26285,7 @@
         <v>15</v>
       </c>
       <c r="O38" t="n">
-        <v>13.33333333333333</v>
+        <v>13.33</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
@@ -26413,7 +26413,7 @@
         <v>15</v>
       </c>
       <c r="O40" t="n">
-        <v>46.66666666666666</v>
+        <v>46.67</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -26478,7 +26478,7 @@
         <v>15</v>
       </c>
       <c r="O41" t="n">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -26606,7 +26606,7 @@
         <v>15</v>
       </c>
       <c r="O43" t="n">
-        <v>6.666666666666667</v>
+        <v>6.67</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -26671,7 +26671,7 @@
         <v>15</v>
       </c>
       <c r="O44" t="n">
-        <v>13.33333333333333</v>
+        <v>13.33</v>
       </c>
       <c r="P44" t="n">
         <v>1</v>
@@ -26866,7 +26866,7 @@
         <v>15</v>
       </c>
       <c r="O47" t="n">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -26931,7 +26931,7 @@
         <v>15</v>
       </c>
       <c r="O48" t="n">
-        <v>13.33333333333333</v>
+        <v>13.33</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
@@ -26996,7 +26996,7 @@
         <v>15</v>
       </c>
       <c r="O49" t="n">
-        <v>26.66666666666667</v>
+        <v>26.67</v>
       </c>
       <c r="P49" t="n">
         <v>1</v>
@@ -27061,7 +27061,7 @@
         <v>15</v>
       </c>
       <c r="O50" t="n">
-        <v>13.33333333333333</v>
+        <v>13.33</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         <v>15</v>
       </c>
       <c r="O52" t="n">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>

--- a/Course Outcomes.xlsx
+++ b/Course Outcomes.xlsx
@@ -7623,16 +7623,10 @@
       <c r="P6" t="n">
         <v>3</v>
       </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="n">
-        <v>1</v>
-      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
@@ -7698,16 +7692,10 @@
       <c r="P7" t="n">
         <v>2</v>
       </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="n">
-        <v>1</v>
-      </c>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr">
@@ -7727,18 +7715,10 @@
       <c r="AA7" t="n">
         <v>2.2</v>
       </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -7793,16 +7773,10 @@
       <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="n">
-        <v>1</v>
-      </c>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
@@ -7868,16 +7842,10 @@
       <c r="P9" t="n">
         <v>2</v>
       </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="n">
-        <v>1</v>
-      </c>
+      <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr">
@@ -7895,15 +7863,9 @@
         <v>27.27</v>
       </c>
       <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>100</v>
-      </c>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -7957,16 +7919,10 @@
       <c r="P10" t="n">
         <v>3</v>
       </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="n">
-        <v>1</v>
-      </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
@@ -8028,16 +7984,10 @@
       <c r="P11" t="n">
         <v>2</v>
       </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="n">
-        <v>1</v>
-      </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
@@ -8103,16 +8053,10 @@
       <c r="P12" t="n">
         <v>2</v>
       </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
-      <c r="T12" t="n">
-        <v>1</v>
-      </c>
+      <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
@@ -8178,16 +8122,10 @@
       <c r="P13" t="n">
         <v>3</v>
       </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
-      <c r="T13" t="n">
-        <v>1</v>
-      </c>
+      <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
@@ -8257,16 +8195,10 @@
       <c r="P14" t="n">
         <v>3</v>
       </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="n">
-        <v>1</v>
-      </c>
+      <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
@@ -8332,16 +8264,10 @@
       <c r="P15" t="n">
         <v>2</v>
       </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="n">
-        <v>1</v>
-      </c>
+      <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
@@ -8407,16 +8333,10 @@
       <c r="P16" t="n">
         <v>3</v>
       </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="n">
-        <v>1</v>
-      </c>
+      <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
@@ -8482,16 +8402,10 @@
       <c r="P17" t="n">
         <v>3</v>
       </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="n">
-        <v>1</v>
-      </c>
+      <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
@@ -8557,16 +8471,10 @@
       <c r="P18" t="n">
         <v>1</v>
       </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
-      <c r="T18" t="n">
-        <v>1</v>
-      </c>
+      <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
@@ -8632,16 +8540,10 @@
       <c r="P19" t="n">
         <v>2</v>
       </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
-      <c r="T19" t="n">
-        <v>1</v>
-      </c>
+      <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
@@ -8707,16 +8609,10 @@
       <c r="P20" t="n">
         <v>3</v>
       </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
-      <c r="T20" t="n">
-        <v>1</v>
-      </c>
+      <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
@@ -8782,16 +8678,10 @@
       <c r="P21" t="n">
         <v>3</v>
       </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="n">
-        <v>1</v>
-      </c>
+      <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
@@ -8857,16 +8747,10 @@
       <c r="P22" t="n">
         <v>3</v>
       </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="n">
-        <v>1</v>
-      </c>
+      <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
@@ -8932,16 +8816,10 @@
       <c r="P23" t="n">
         <v>2</v>
       </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="n">
-        <v>1</v>
-      </c>
+      <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
@@ -9007,16 +8885,10 @@
       <c r="P24" t="n">
         <v>3</v>
       </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="n">
-        <v>1</v>
-      </c>
+      <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
@@ -9080,16 +8952,10 @@
       <c r="P25" t="n">
         <v>3</v>
       </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="n">
-        <v>1</v>
-      </c>
+      <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
@@ -9155,16 +9021,10 @@
       <c r="P26" t="n">
         <v>3</v>
       </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="n">
-        <v>1</v>
-      </c>
+      <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
@@ -9230,16 +9090,10 @@
       <c r="P27" t="n">
         <v>1</v>
       </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
-      <c r="T27" t="n">
-        <v>1</v>
-      </c>
+      <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
@@ -9305,16 +9159,10 @@
       <c r="P28" t="n">
         <v>1</v>
       </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
-      <c r="T28" t="n">
-        <v>1</v>
-      </c>
+      <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
@@ -9380,16 +9228,10 @@
       <c r="P29" t="n">
         <v>1</v>
       </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
-      <c r="T29" t="n">
-        <v>1</v>
-      </c>
+      <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
@@ -9455,16 +9297,10 @@
       <c r="P30" t="n">
         <v>3</v>
       </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
-      <c r="T30" t="n">
-        <v>1</v>
-      </c>
+      <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
@@ -9530,16 +9366,10 @@
       <c r="P31" t="n">
         <v>3</v>
       </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
-      <c r="T31" t="n">
-        <v>1</v>
-      </c>
+      <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
@@ -9605,16 +9435,10 @@
       <c r="P32" t="n">
         <v>2</v>
       </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
-      <c r="T32" t="n">
-        <v>1</v>
-      </c>
+      <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
@@ -9680,16 +9504,10 @@
       <c r="P33" t="n">
         <v>2</v>
       </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="n">
-        <v>1</v>
-      </c>
+      <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
@@ -9755,16 +9573,10 @@
       <c r="P34" t="n">
         <v>3</v>
       </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
-      <c r="T34" t="n">
-        <v>1</v>
-      </c>
+      <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
@@ -9830,16 +9642,10 @@
       <c r="P35" t="n">
         <v>2</v>
       </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
-      <c r="T35" t="n">
-        <v>1</v>
-      </c>
+      <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
@@ -9905,16 +9711,10 @@
       <c r="P36" t="n">
         <v>3</v>
       </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
-      <c r="T36" t="n">
-        <v>1</v>
-      </c>
+      <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
@@ -9980,16 +9780,10 @@
       <c r="P37" t="n">
         <v>2</v>
       </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
-      <c r="T37" t="n">
-        <v>1</v>
-      </c>
+      <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
@@ -10055,16 +9849,10 @@
       <c r="P38" t="n">
         <v>2</v>
       </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
-      <c r="T38" t="n">
-        <v>1</v>
-      </c>
+      <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
@@ -10130,16 +9918,10 @@
       <c r="P39" t="n">
         <v>3</v>
       </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
-      <c r="T39" t="n">
-        <v>1</v>
-      </c>
+      <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
@@ -10205,16 +9987,10 @@
       <c r="P40" t="n">
         <v>2</v>
       </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
-      <c r="T40" t="n">
-        <v>1</v>
-      </c>
+      <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
@@ -10280,16 +10056,10 @@
       <c r="P41" t="n">
         <v>3</v>
       </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
-      <c r="T41" t="n">
-        <v>1</v>
-      </c>
+      <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
@@ -10355,16 +10125,10 @@
       <c r="P42" t="n">
         <v>2</v>
       </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
-      <c r="T42" t="n">
-        <v>1</v>
-      </c>
+      <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
@@ -10430,16 +10194,10 @@
       <c r="P43" t="n">
         <v>1</v>
       </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
-      <c r="T43" t="n">
-        <v>1</v>
-      </c>
+      <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
@@ -10505,16 +10263,10 @@
       <c r="P44" t="n">
         <v>3</v>
       </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
-      <c r="T44" t="n">
-        <v>1</v>
-      </c>
+      <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
@@ -10580,16 +10332,10 @@
       <c r="P45" t="n">
         <v>3</v>
       </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
-      <c r="T45" t="n">
-        <v>1</v>
-      </c>
+      <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
@@ -10655,16 +10401,10 @@
       <c r="P46" t="n">
         <v>3</v>
       </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
-      <c r="T46" t="n">
-        <v>1</v>
-      </c>
+      <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
@@ -10730,16 +10470,10 @@
       <c r="P47" t="n">
         <v>3</v>
       </c>
-      <c r="Q47" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
-      <c r="T47" t="n">
-        <v>1</v>
-      </c>
+      <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
@@ -10805,16 +10539,10 @@
       <c r="P48" t="n">
         <v>1</v>
       </c>
-      <c r="Q48" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
-      <c r="T48" t="n">
-        <v>1</v>
-      </c>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
@@ -10880,16 +10608,10 @@
       <c r="P49" t="n">
         <v>3</v>
       </c>
-      <c r="Q49" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
-      <c r="T49" t="n">
-        <v>1</v>
-      </c>
+      <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
@@ -10955,16 +10677,10 @@
       <c r="P50" t="n">
         <v>1</v>
       </c>
-      <c r="Q50" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
-      <c r="T50" t="n">
-        <v>1</v>
-      </c>
+      <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
@@ -11030,16 +10746,10 @@
       <c r="P51" t="n">
         <v>3</v>
       </c>
-      <c r="Q51" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
-      <c r="T51" t="n">
-        <v>1</v>
-      </c>
+      <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
@@ -11105,16 +10815,10 @@
       <c r="P52" t="n">
         <v>1</v>
       </c>
-      <c r="Q52" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
-      <c r="T52" t="n">
-        <v>1</v>
-      </c>
+      <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
@@ -11180,16 +10884,10 @@
       <c r="P53" t="n">
         <v>1</v>
       </c>
-      <c r="Q53" t="n">
-        <v>0</v>
-      </c>
-      <c r="R53" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
-      <c r="T53" t="n">
-        <v>1</v>
-      </c>
+      <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
@@ -11255,16 +10953,10 @@
       <c r="P54" t="n">
         <v>1</v>
       </c>
-      <c r="Q54" t="n">
-        <v>0</v>
-      </c>
-      <c r="R54" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
-      <c r="T54" t="n">
-        <v>1</v>
-      </c>
+      <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
@@ -11330,16 +11022,10 @@
       <c r="P55" t="n">
         <v>1</v>
       </c>
-      <c r="Q55" t="n">
-        <v>0</v>
-      </c>
-      <c r="R55" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
-      <c r="T55" t="n">
-        <v>1</v>
-      </c>
+      <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
@@ -11405,16 +11091,10 @@
       <c r="P56" t="n">
         <v>1</v>
       </c>
-      <c r="Q56" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
-      <c r="T56" t="n">
-        <v>1</v>
-      </c>
+      <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
@@ -11480,16 +11160,10 @@
       <c r="P57" t="n">
         <v>1</v>
       </c>
-      <c r="Q57" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
-      <c r="T57" t="n">
-        <v>1</v>
-      </c>
+      <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
@@ -11555,16 +11229,10 @@
       <c r="P58" t="n">
         <v>3</v>
       </c>
-      <c r="Q58" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
-      <c r="T58" t="n">
-        <v>1</v>
-      </c>
+      <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
@@ -11630,16 +11298,10 @@
       <c r="P59" t="n">
         <v>1</v>
       </c>
-      <c r="Q59" t="n">
-        <v>0</v>
-      </c>
-      <c r="R59" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
-      <c r="T59" t="n">
-        <v>1</v>
-      </c>
+      <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
@@ -11705,16 +11367,10 @@
       <c r="P60" t="n">
         <v>3</v>
       </c>
-      <c r="Q60" t="n">
-        <v>0</v>
-      </c>
-      <c r="R60" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
-      <c r="T60" t="n">
-        <v>1</v>
-      </c>
+      <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
@@ -12145,16 +11801,10 @@
       <c r="M6" t="n">
         <v>3</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -12209,16 +11859,10 @@
       <c r="M7" t="n">
         <v>2</v>
       </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr">
@@ -12238,18 +11882,10 @@
       <c r="X7" t="n">
         <v>2.018181818181818</v>
       </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -12293,16 +11929,10 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -12359,16 +11989,10 @@
       <c r="M9" t="n">
         <v>2</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr">
@@ -12386,15 +12010,9 @@
         <v>43.63</v>
       </c>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>100</v>
-      </c>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -12439,16 +12057,10 @@
       <c r="M10" t="n">
         <v>2</v>
       </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -12505,16 +12117,10 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -12569,16 +12175,10 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -12633,16 +12233,10 @@
       <c r="M13" t="n">
         <v>3</v>
       </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -12705,16 +12299,10 @@
       <c r="M14" t="n">
         <v>3</v>
       </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -12769,16 +12357,10 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -12833,16 +12415,10 @@
       <c r="M16" t="n">
         <v>3</v>
       </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -12899,16 +12475,10 @@
       <c r="M17" t="n">
         <v>3</v>
       </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
@@ -12965,16 +12535,10 @@
       <c r="M18" t="n">
         <v>2</v>
       </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -13031,16 +12595,10 @@
       <c r="M19" t="n">
         <v>3</v>
       </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -13095,16 +12653,10 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -13161,16 +12713,10 @@
       <c r="M21" t="n">
         <v>3</v>
       </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -13225,16 +12771,10 @@
       <c r="M22" t="n">
         <v>3</v>
       </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -13289,16 +12829,10 @@
       <c r="M23" t="n">
         <v>3</v>
       </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -13353,16 +12887,10 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -13417,16 +12945,10 @@
       <c r="M25" t="n">
         <v>3</v>
       </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -13483,16 +13005,10 @@
       <c r="M26" t="n">
         <v>3</v>
       </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -13549,16 +13065,10 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -13613,16 +13123,10 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -13679,16 +13183,10 @@
       <c r="M29" t="n">
         <v>3</v>
       </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -13745,16 +13243,10 @@
       <c r="M30" t="n">
         <v>3</v>
       </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
@@ -13811,16 +13303,10 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
@@ -13875,16 +13361,10 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -13939,16 +13419,10 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -14003,16 +13477,10 @@
       <c r="M34" t="n">
         <v>3</v>
       </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -14069,16 +13537,10 @@
       <c r="M35" t="n">
         <v>3</v>
       </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -14133,16 +13595,10 @@
       <c r="M36" t="n">
         <v>3</v>
       </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -14197,16 +13653,10 @@
       <c r="M37" t="n">
         <v>3</v>
       </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -14263,16 +13713,10 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -14327,16 +13771,10 @@
       <c r="M39" t="n">
         <v>3</v>
       </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
@@ -14393,16 +13831,10 @@
       <c r="M40" t="n">
         <v>2</v>
       </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
@@ -14457,16 +13889,10 @@
       <c r="M41" t="n">
         <v>3</v>
       </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
@@ -14521,16 +13947,10 @@
       <c r="M42" t="n">
         <v>3</v>
       </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
@@ -14585,16 +14005,10 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
@@ -14649,16 +14063,10 @@
       <c r="M44" t="n">
         <v>2</v>
       </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
@@ -14713,16 +14121,10 @@
       <c r="M45" t="n">
         <v>3</v>
       </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
@@ -14779,16 +14181,10 @@
       <c r="M46" t="n">
         <v>3</v>
       </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -14843,16 +14239,10 @@
       <c r="M47" t="n">
         <v>3</v>
       </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
@@ -14909,16 +14299,10 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
@@ -14973,16 +14357,10 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
-      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
@@ -15037,16 +14415,10 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0</v>
-      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
@@ -15101,16 +14473,10 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
-      <c r="N51" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
-      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
@@ -15165,16 +14531,10 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
@@ -15231,16 +14591,10 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
@@ -15297,16 +14651,10 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" t="n">
-        <v>0</v>
-      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
@@ -15361,16 +14709,10 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
-      <c r="N55" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" t="n">
-        <v>0</v>
-      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
@@ -15427,16 +14769,10 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
-      <c r="N56" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
@@ -15491,16 +14827,10 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
@@ -15555,16 +14885,10 @@
       <c r="M58" t="n">
         <v>3</v>
       </c>
-      <c r="N58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
@@ -15619,16 +14943,10 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
-      <c r="N59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
-      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
@@ -15683,16 +15001,10 @@
       <c r="M60" t="n">
         <v>3</v>
       </c>
-      <c r="N60" t="n">
-        <v>0</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0</v>
-      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
@@ -28149,8 +27461,15 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>No of
+Students</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>55</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -28465,15 +27784,55 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 3</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 1</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>INT Avg
+Grade</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Total ES
+Grade 3</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Total ES
+Grade 2</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Total ES
+Grade 1</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>ES Avg
+Grade</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
@@ -28574,15 +27933,31 @@
           <t>Number of students</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>13</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>34</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.618181818181818</v>
+      </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>14</v>
+      </c>
+      <c r="K7" t="n">
+        <v>12</v>
+      </c>
+      <c r="L7" t="n">
+        <v>29</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.727272727272727</v>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
@@ -28788,14 +28163,28 @@
           <t>Percentage</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="F9" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="G9" t="n">
+        <v>61.81</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.618181818181818</v>
+      </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="K9" t="n">
+        <v>21.81</v>
+      </c>
+      <c r="L9" t="n">
+        <v>52.72</v>
+      </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -29212,15 +28601,55 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 3</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 2</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 1</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>INT Avg
+Grade</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Total ES
+Grade 3</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Total ES
+Grade 2</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Total ES
+Grade 1</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>ES Avg
+Grade</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
@@ -29321,15 +28750,39 @@
           <t>Number of students</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>26</v>
+      </c>
+      <c r="F14" t="n">
+        <v>14</v>
+      </c>
+      <c r="G14" t="n">
+        <v>15</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.2</v>
+      </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
@@ -29535,15 +28988,39 @@
           <t>Percentage</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>47.27</v>
+      </c>
+      <c r="F16" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="G16" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.2</v>
+      </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
@@ -29959,15 +29436,55 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 3</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 2</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 1</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>INT Avg
+Grade</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Total ES
+Grade 3</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Total ES
+Grade 2</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Total ES
+Grade 1</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>ES Avg
+Grade</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
@@ -30068,15 +29585,39 @@
           <t>Number of students</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>25</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G21" t="n">
+        <v>24</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.018181818181818</v>
+      </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
@@ -30282,15 +29823,39 @@
           <t>Percentage</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="F23" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="G23" t="n">
+        <v>43.63</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.018181818181818</v>
+      </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
@@ -30706,15 +30271,55 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 3</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 2</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 1</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>INT Avg
+Grade</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Total ES
+Grade 3</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Total ES
+Grade 2</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Total ES
+Grade 1</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>ES Avg
+Grade</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
@@ -30815,15 +30420,31 @@
           <t>Number of students</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>26</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>27</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.981818181818182</v>
+      </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>26</v>
+      </c>
+      <c r="K28" t="n">
+        <v>9</v>
+      </c>
+      <c r="L28" t="n">
+        <v>20</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2.109090909090909</v>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
@@ -31029,14 +30650,28 @@
           <t>Percentage</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>47.27</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="G30" t="n">
+        <v>49.09</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.981818181818182</v>
+      </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>47.27</v>
+      </c>
+      <c r="K30" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="L30" t="n">
+        <v>36.36</v>
+      </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -31453,15 +31088,55 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 3</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 2</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 1</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>INT Avg
+Grade</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Total ES
+Grade 3</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Total ES
+Grade 2</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Total ES
+Grade 1</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>ES Avg
+Grade</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
@@ -31562,15 +31237,31 @@
           <t>Number of students</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>16</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>39</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.581818181818182</v>
+      </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>32</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3</v>
+      </c>
+      <c r="L35" t="n">
+        <v>20</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2.218181818181818</v>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
@@ -31776,14 +31467,28 @@
           <t>Percentage</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.581818181818182</v>
+      </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>58.18</v>
+      </c>
+      <c r="K37" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="L37" t="n">
+        <v>36.36</v>
+      </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -32200,15 +31905,55 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 3</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 2</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Total INT
+Grade 1</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>INT Avg
+Grade</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Total ES
+Grade 3</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Total ES
+Grade 2</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Total ES
+Grade 1</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>ES Avg
+Grade</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
@@ -32309,15 +32054,31 @@
           <t>Number of students</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>32</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>23</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2.163636363636364</v>
+      </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>13</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2</v>
+      </c>
+      <c r="L42" t="n">
+        <v>40</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.509090909090909</v>
+      </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
@@ -32523,14 +32284,28 @@
           <t>Percentage</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>58.18</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>41.81</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2.163636363636364</v>
+      </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="L44" t="n">
+        <v>72.72</v>
+      </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
